--- a/Прайс Феникс.xlsx
+++ b/Прайс Феникс.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15480" windowHeight="11595" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15480" windowHeight="11595" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3098" uniqueCount="567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3098" uniqueCount="568">
   <si>
     <t>Группа</t>
   </si>
@@ -1719,6 +1719,9 @@
   </si>
   <si>
     <t>Прихожие</t>
+  </si>
+  <si>
+    <t>2-15 дней</t>
   </si>
 </sst>
 </file>
@@ -1825,10 +1828,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2283,24 +2286,24 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="15" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="4"/>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="15" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="4"/>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="15" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C2" s="14"/>
+      <c r="C2" s="15"/>
       <c r="D2" s="4"/>
-      <c r="E2" s="14"/>
+      <c r="E2" s="15"/>
       <c r="F2" s="4"/>
-      <c r="G2" s="14"/>
+      <c r="G2" s="15"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -16282,7 +16285,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E177"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -16290,7 +16293,7 @@
   <cols>
     <col min="2" max="2" width="61" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33.140625" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" style="14" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -16304,7 +16307,7 @@
       <c r="C1" t="s">
         <v>328</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="14" t="s">
         <v>329</v>
       </c>
       <c r="E1" t="s">
@@ -16321,7 +16324,7 @@
       <c r="C2" t="s">
         <v>389</v>
       </c>
-      <c r="D2" s="15">
+      <c r="D2" s="14">
         <v>2327000</v>
       </c>
       <c r="E2" t="s">
@@ -16338,7 +16341,7 @@
       <c r="C3" t="s">
         <v>390</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="14">
         <v>2104700</v>
       </c>
       <c r="E3" t="s">
@@ -16355,7 +16358,7 @@
       <c r="C4" t="s">
         <v>391</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="14">
         <v>2249900</v>
       </c>
       <c r="E4" t="s">
@@ -16372,7 +16375,7 @@
       <c r="C5" t="s">
         <v>392</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="14">
         <v>1587600</v>
       </c>
       <c r="E5" t="s">
@@ -16389,7 +16392,7 @@
       <c r="C6" t="s">
         <v>393</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="14">
         <v>2243100</v>
       </c>
       <c r="E6" t="s">
@@ -16406,7 +16409,7 @@
       <c r="C7" t="s">
         <v>394</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="14">
         <v>2599100</v>
       </c>
       <c r="E7" t="s">
@@ -16423,7 +16426,7 @@
       <c r="C8" t="s">
         <v>395</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="14">
         <v>2767000</v>
       </c>
       <c r="E8" t="s">
@@ -16440,7 +16443,7 @@
       <c r="C9" t="s">
         <v>396</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="14">
         <v>3016400</v>
       </c>
       <c r="E9" t="s">
@@ -16457,7 +16460,7 @@
       <c r="C10" t="s">
         <v>397</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="14">
         <v>3197900</v>
       </c>
       <c r="E10" t="s">
@@ -16474,7 +16477,7 @@
       <c r="C11" t="s">
         <v>398</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="14">
         <v>3161600</v>
       </c>
       <c r="E11" t="s">
@@ -16491,7 +16494,7 @@
       <c r="C12" t="s">
         <v>399</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="14">
         <v>3116200</v>
       </c>
       <c r="E12" t="s">
@@ -16508,7 +16511,7 @@
       <c r="C13" t="s">
         <v>400</v>
       </c>
-      <c r="D13" s="15">
+      <c r="D13" s="14">
         <v>3021000</v>
       </c>
       <c r="E13" t="s">
@@ -16525,7 +16528,7 @@
       <c r="C14" t="s">
         <v>401</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D14" s="14">
         <v>2943900</v>
       </c>
       <c r="E14" t="s">
@@ -16542,7 +16545,7 @@
       <c r="C15" t="s">
         <v>402</v>
       </c>
-      <c r="D15" s="15">
+      <c r="D15" s="14">
         <v>2671700</v>
       </c>
       <c r="E15" t="s">
@@ -16559,7 +16562,7 @@
       <c r="C16" t="s">
         <v>403</v>
       </c>
-      <c r="D16" s="15">
+      <c r="D16" s="14">
         <v>2671700</v>
       </c>
       <c r="E16" t="s">
@@ -16576,7 +16579,7 @@
       <c r="C17" t="s">
         <v>404</v>
       </c>
-      <c r="D17" s="15">
+      <c r="D17" s="14">
         <v>3588000</v>
       </c>
       <c r="E17" t="s">
@@ -16593,7 +16596,7 @@
       <c r="C18" t="s">
         <v>405</v>
       </c>
-      <c r="D18" s="15">
+      <c r="D18" s="14">
         <v>3588000</v>
       </c>
       <c r="E18" t="s">
@@ -16610,7 +16613,7 @@
       <c r="C19" t="s">
         <v>406</v>
       </c>
-      <c r="D19" s="15">
+      <c r="D19" s="14">
         <v>3361200</v>
       </c>
       <c r="E19" t="s">
@@ -16627,7 +16630,7 @@
       <c r="C20" t="s">
         <v>407</v>
       </c>
-      <c r="D20" s="15">
+      <c r="D20" s="14">
         <v>3338500</v>
       </c>
       <c r="E20" t="s">
@@ -16644,7 +16647,7 @@
       <c r="C21" t="s">
         <v>408</v>
       </c>
-      <c r="D21" s="15">
+      <c r="D21" s="14">
         <v>3483600</v>
       </c>
       <c r="E21" t="s">
@@ -16661,7 +16664,7 @@
       <c r="C22" t="s">
         <v>409</v>
       </c>
-      <c r="D22" s="15">
+      <c r="D22" s="14">
         <v>3560800</v>
       </c>
       <c r="E22" t="s">
@@ -16678,7 +16681,7 @@
       <c r="C23" t="s">
         <v>410</v>
       </c>
-      <c r="D23" s="15">
+      <c r="D23" s="14">
         <v>3492700</v>
       </c>
       <c r="E23" t="s">
@@ -16695,7 +16698,7 @@
       <c r="C24" t="s">
         <v>411</v>
       </c>
-      <c r="D24" s="15">
+      <c r="D24" s="14">
         <v>3261400</v>
       </c>
       <c r="E24" t="s">
@@ -16712,7 +16715,7 @@
       <c r="C25" t="s">
         <v>412</v>
       </c>
-      <c r="D25" s="15">
+      <c r="D25" s="14">
         <v>2973300</v>
       </c>
       <c r="E25" t="s">
@@ -16729,7 +16732,7 @@
       <c r="C26" t="s">
         <v>413</v>
       </c>
-      <c r="D26" s="15">
+      <c r="D26" s="14">
         <v>3041400</v>
       </c>
       <c r="E26" t="s">
@@ -16746,7 +16749,7 @@
       <c r="C27" t="s">
         <v>414</v>
       </c>
-      <c r="D27" s="15">
+      <c r="D27" s="14">
         <v>3442800</v>
       </c>
       <c r="E27" t="s">
@@ -16763,7 +16766,7 @@
       <c r="C28" t="s">
         <v>415</v>
       </c>
-      <c r="D28" s="15">
+      <c r="D28" s="14">
         <v>3510900</v>
       </c>
       <c r="E28" t="s">
@@ -16780,7 +16783,7 @@
       <c r="C29" t="s">
         <v>416</v>
       </c>
-      <c r="D29" s="15">
+      <c r="D29" s="14">
         <v>3619700</v>
       </c>
       <c r="E29" t="s">
@@ -16797,7 +16800,7 @@
       <c r="C30" t="s">
         <v>417</v>
       </c>
-      <c r="D30" s="15">
+      <c r="D30" s="14">
         <v>3687800</v>
       </c>
       <c r="E30" t="s">
@@ -16814,7 +16817,7 @@
       <c r="C31" t="s">
         <v>418</v>
       </c>
-      <c r="D31" s="15">
+      <c r="D31" s="14">
         <v>1168000</v>
       </c>
       <c r="E31" t="s">
@@ -16831,7 +16834,7 @@
       <c r="C32" t="s">
         <v>419</v>
       </c>
-      <c r="D32" s="15">
+      <c r="D32" s="14">
         <v>1229300</v>
       </c>
       <c r="E32" t="s">
@@ -16848,7 +16851,7 @@
       <c r="C33" t="s">
         <v>420</v>
       </c>
-      <c r="D33" s="15">
+      <c r="D33" s="14">
         <v>4267200</v>
       </c>
       <c r="E33" t="s">
@@ -16865,7 +16868,7 @@
       <c r="C34" t="s">
         <v>421</v>
       </c>
-      <c r="D34" s="15">
+      <c r="D34" s="14">
         <v>3918600</v>
       </c>
       <c r="E34" t="s">
@@ -16882,7 +16885,7 @@
       <c r="C35" t="s">
         <v>422</v>
       </c>
-      <c r="D35" s="15">
+      <c r="D35" s="14">
         <v>3754800</v>
       </c>
       <c r="E35" t="s">
@@ -16899,7 +16902,7 @@
       <c r="C36" t="s">
         <v>423</v>
       </c>
-      <c r="D36" s="15">
+      <c r="D36" s="14">
         <v>4628400</v>
       </c>
       <c r="E36" t="s">
@@ -16916,7 +16919,7 @@
       <c r="C37" t="s">
         <v>424</v>
       </c>
-      <c r="D37" s="15">
+      <c r="D37" s="14">
         <v>4473000</v>
       </c>
       <c r="E37" t="s">
@@ -16933,7 +16936,7 @@
       <c r="C38" t="s">
         <v>425</v>
       </c>
-      <c r="D38" s="15">
+      <c r="D38" s="14">
         <v>4145400</v>
       </c>
       <c r="E38" t="s">
@@ -16950,7 +16953,7 @@
       <c r="C39" t="s">
         <v>426</v>
       </c>
-      <c r="D39" s="15">
+      <c r="D39" s="14">
         <v>4750200</v>
       </c>
       <c r="E39" t="s">
@@ -16967,7 +16970,7 @@
       <c r="C40" t="s">
         <v>427</v>
       </c>
-      <c r="D40" s="15">
+      <c r="D40" s="14">
         <v>4090800</v>
       </c>
       <c r="E40" t="s">
@@ -16984,7 +16987,7 @@
       <c r="C41" t="s">
         <v>428</v>
       </c>
-      <c r="D41" s="15">
+      <c r="D41" s="14">
         <v>4624200</v>
       </c>
       <c r="E41" t="s">
@@ -17001,7 +17004,7 @@
       <c r="C42" t="s">
         <v>429</v>
       </c>
-      <c r="D42" s="15">
+      <c r="D42" s="14">
         <v>4636800</v>
       </c>
       <c r="E42" t="s">
@@ -17018,7 +17021,7 @@
       <c r="C43" t="s">
         <v>430</v>
       </c>
-      <c r="D43" s="15">
+      <c r="D43" s="14">
         <v>6077400</v>
       </c>
       <c r="E43" t="s">
@@ -17035,7 +17038,7 @@
       <c r="C44" t="s">
         <v>431</v>
       </c>
-      <c r="D44" s="15">
+      <c r="D44" s="14">
         <v>5632200</v>
       </c>
       <c r="E44" t="s">
@@ -17052,7 +17055,7 @@
       <c r="C45" t="s">
         <v>432</v>
       </c>
-      <c r="D45" s="15">
+      <c r="D45" s="14">
         <v>5859000</v>
       </c>
       <c r="E45" t="s">
@@ -17069,7 +17072,7 @@
       <c r="C46" t="s">
         <v>433</v>
       </c>
-      <c r="D46" s="15">
+      <c r="D46" s="14">
         <v>1224700</v>
       </c>
       <c r="E46" t="s">
@@ -17086,7 +17089,7 @@
       <c r="C47" t="s">
         <v>434</v>
       </c>
-      <c r="D47" s="15">
+      <c r="D47" s="14">
         <v>2556000</v>
       </c>
       <c r="E47" t="s">
@@ -17103,7 +17106,7 @@
       <c r="C48" t="s">
         <v>435</v>
       </c>
-      <c r="D48" s="15">
+      <c r="D48" s="14">
         <v>2934800</v>
       </c>
       <c r="E48" t="s">
@@ -17120,7 +17123,7 @@
       <c r="C49" t="s">
         <v>436</v>
       </c>
-      <c r="D49" s="15">
+      <c r="D49" s="14">
         <v>3923600</v>
       </c>
       <c r="E49" t="s">
@@ -17137,7 +17140,7 @@
       <c r="C50" t="s">
         <v>437</v>
       </c>
-      <c r="D50" s="15">
+      <c r="D50" s="14">
         <v>2903000</v>
       </c>
       <c r="E50" t="s">
@@ -17154,7 +17157,7 @@
       <c r="C51" t="s">
         <v>438</v>
       </c>
-      <c r="D51" s="15">
+      <c r="D51" s="14">
         <v>2256700</v>
       </c>
       <c r="E51" t="s">
@@ -17171,7 +17174,7 @@
       <c r="C52" t="s">
         <v>439</v>
       </c>
-      <c r="D52" s="15">
+      <c r="D52" s="14">
         <v>4345500</v>
       </c>
       <c r="E52" t="s">
@@ -17188,7 +17191,7 @@
       <c r="C53" t="s">
         <v>440</v>
       </c>
-      <c r="D53" s="15">
+      <c r="D53" s="14">
         <v>1344900</v>
       </c>
       <c r="E53" t="s">
@@ -17205,7 +17208,7 @@
       <c r="C54" t="s">
         <v>441</v>
       </c>
-      <c r="D54" s="15">
+      <c r="D54" s="14">
         <v>1274600</v>
       </c>
       <c r="E54" t="s">
@@ -17222,7 +17225,7 @@
       <c r="C55" t="s">
         <v>442</v>
       </c>
-      <c r="D55" s="15">
+      <c r="D55" s="14">
         <v>1541500</v>
       </c>
       <c r="E55" t="s">
@@ -17239,7 +17242,7 @@
       <c r="C56" t="s">
         <v>443</v>
       </c>
-      <c r="D56" s="15">
+      <c r="D56" s="14">
         <v>1635200</v>
       </c>
       <c r="E56" t="s">
@@ -17256,7 +17259,7 @@
       <c r="C57" t="s">
         <v>444</v>
       </c>
-      <c r="D57" s="15">
+      <c r="D57" s="14">
         <v>1635200</v>
       </c>
       <c r="E57" t="s">
@@ -17273,7 +17276,7 @@
       <c r="C58" t="s">
         <v>445</v>
       </c>
-      <c r="D58" s="15">
+      <c r="D58" s="14">
         <v>1541500</v>
       </c>
       <c r="E58" t="s">
@@ -17290,7 +17293,7 @@
       <c r="C59" t="s">
         <v>446</v>
       </c>
-      <c r="D59" s="15">
+      <c r="D59" s="14">
         <v>1635200</v>
       </c>
       <c r="E59" t="s">
@@ -17307,7 +17310,7 @@
       <c r="C60" t="s">
         <v>447</v>
       </c>
-      <c r="D60" s="15">
+      <c r="D60" s="14">
         <v>1635200</v>
       </c>
       <c r="E60" t="s">
@@ -17324,7 +17327,7 @@
       <c r="C61" t="s">
         <v>448</v>
       </c>
-      <c r="D61" s="15">
+      <c r="D61" s="14">
         <v>1238300</v>
       </c>
       <c r="E61" t="s">
@@ -17341,7 +17344,7 @@
       <c r="C62" t="s">
         <v>449</v>
       </c>
-      <c r="D62" s="15">
+      <c r="D62" s="14">
         <v>1274600</v>
       </c>
       <c r="E62" t="s">
@@ -17358,7 +17361,7 @@
       <c r="C63" t="s">
         <v>450</v>
       </c>
-      <c r="D63" s="15">
+      <c r="D63" s="14">
         <v>1274600</v>
       </c>
       <c r="E63" t="s">
@@ -17375,7 +17378,7 @@
       <c r="C64" t="s">
         <v>451</v>
       </c>
-      <c r="D64" s="15">
+      <c r="D64" s="14">
         <v>1344900</v>
       </c>
       <c r="E64" t="s">
@@ -17392,7 +17395,7 @@
       <c r="C65" t="s">
         <v>452</v>
       </c>
-      <c r="D65" s="15">
+      <c r="D65" s="14">
         <v>1145300</v>
       </c>
       <c r="E65" t="s">
@@ -17409,7 +17412,7 @@
       <c r="C66" t="s">
         <v>453</v>
       </c>
-      <c r="D66" s="15">
+      <c r="D66" s="14">
         <v>1213400</v>
       </c>
       <c r="E66" t="s">
@@ -17426,7 +17429,7 @@
       <c r="C67" t="s">
         <v>454</v>
       </c>
-      <c r="D67" s="15">
+      <c r="D67" s="14">
         <v>988800</v>
       </c>
       <c r="E67" t="s">
@@ -17443,7 +17446,7 @@
       <c r="C68" t="s">
         <v>455</v>
       </c>
-      <c r="D68" s="15">
+      <c r="D68" s="14">
         <v>898100</v>
       </c>
       <c r="E68" t="s">
@@ -17460,7 +17463,7 @@
       <c r="C69" t="s">
         <v>456</v>
       </c>
-      <c r="D69" s="15">
+      <c r="D69" s="14">
         <v>839200</v>
       </c>
       <c r="E69" t="s">
@@ -17477,7 +17480,7 @@
       <c r="C70" t="s">
         <v>457</v>
       </c>
-      <c r="D70" s="15">
+      <c r="D70" s="14">
         <v>1306400</v>
       </c>
       <c r="E70" t="s">
@@ -17494,7 +17497,7 @@
       <c r="C71" t="s">
         <v>458</v>
       </c>
-      <c r="D71" s="15">
+      <c r="D71" s="14">
         <v>2825900</v>
       </c>
       <c r="E71" t="s">
@@ -17511,7 +17514,7 @@
       <c r="C72" t="s">
         <v>459</v>
       </c>
-      <c r="D72" s="15">
+      <c r="D72" s="14">
         <v>3504100</v>
       </c>
       <c r="E72" t="s">
@@ -17528,7 +17531,7 @@
       <c r="C73" t="s">
         <v>460</v>
       </c>
-      <c r="D73" s="15">
+      <c r="D73" s="14">
         <v>1798500</v>
       </c>
       <c r="E73" t="s">
@@ -17545,7 +17548,7 @@
       <c r="C74" t="s">
         <v>461</v>
       </c>
-      <c r="D74" s="15">
+      <c r="D74" s="14">
         <v>2382500</v>
       </c>
       <c r="E74" t="s">
@@ -17562,7 +17565,7 @@
       <c r="C75" t="s">
         <v>462</v>
       </c>
-      <c r="D75" s="15">
+      <c r="D75" s="14">
         <v>1495000</v>
       </c>
       <c r="E75" t="s">
@@ -17579,7 +17582,7 @@
       <c r="C76" t="s">
         <v>463</v>
       </c>
-      <c r="D76" s="15">
+      <c r="D76" s="14">
         <v>1775100</v>
       </c>
       <c r="E76" t="s">
@@ -17596,7 +17599,7 @@
       <c r="C77" t="s">
         <v>464</v>
       </c>
-      <c r="D77" s="15">
+      <c r="D77" s="14">
         <v>1961800</v>
       </c>
       <c r="E77" t="s">
@@ -17613,7 +17616,7 @@
       <c r="C78" t="s">
         <v>465</v>
       </c>
-      <c r="D78" s="15">
+      <c r="D78" s="14">
         <v>2709500</v>
       </c>
       <c r="E78" t="s">
@@ -17630,7 +17633,7 @@
       <c r="C79" t="s">
         <v>466</v>
       </c>
-      <c r="D79" s="15">
+      <c r="D79" s="14">
         <v>911700</v>
       </c>
       <c r="E79" t="s">
@@ -17647,7 +17650,7 @@
       <c r="C80" t="s">
         <v>467</v>
       </c>
-      <c r="D80" s="15">
+      <c r="D80" s="14">
         <v>1220200</v>
       </c>
       <c r="E80" t="s">
@@ -17664,7 +17667,7 @@
       <c r="C81" t="s">
         <v>468</v>
       </c>
-      <c r="D81" s="15">
+      <c r="D81" s="14">
         <v>1056900</v>
       </c>
       <c r="E81" t="s">
@@ -17681,7 +17684,7 @@
       <c r="C82" t="s">
         <v>469</v>
       </c>
-      <c r="D82" s="15">
+      <c r="D82" s="14">
         <v>1378900</v>
       </c>
       <c r="E82" t="s">
@@ -17698,7 +17701,7 @@
       <c r="C83" t="s">
         <v>470</v>
       </c>
-      <c r="D83" s="15">
+      <c r="D83" s="14">
         <v>1728600</v>
       </c>
       <c r="E83" t="s">
@@ -17715,7 +17718,7 @@
       <c r="C84" t="s">
         <v>471</v>
       </c>
-      <c r="D84" s="15">
+      <c r="D84" s="14">
         <v>691700</v>
       </c>
       <c r="E84" t="s">
@@ -17732,7 +17735,7 @@
       <c r="C85" t="s">
         <v>472</v>
       </c>
-      <c r="D85" s="15">
+      <c r="D85" s="14">
         <v>766600</v>
       </c>
       <c r="E85" t="s">
@@ -17749,7 +17752,7 @@
       <c r="C86" t="s">
         <v>473</v>
       </c>
-      <c r="D86" s="15">
+      <c r="D86" s="14">
         <v>2825900</v>
       </c>
       <c r="E86" t="s">
@@ -17766,7 +17769,7 @@
       <c r="C87" t="s">
         <v>474</v>
       </c>
-      <c r="D87" s="15">
+      <c r="D87" s="14">
         <v>3504100</v>
       </c>
       <c r="E87" t="s">
@@ -17783,7 +17786,7 @@
       <c r="C88" t="s">
         <v>475</v>
       </c>
-      <c r="D88" s="15">
+      <c r="D88" s="14">
         <v>1798500</v>
       </c>
       <c r="E88" t="s">
@@ -17800,7 +17803,7 @@
       <c r="C89" t="s">
         <v>476</v>
       </c>
-      <c r="D89" s="15">
+      <c r="D89" s="14">
         <v>2382500</v>
       </c>
       <c r="E89" t="s">
@@ -17817,7 +17820,7 @@
       <c r="C90" t="s">
         <v>477</v>
       </c>
-      <c r="D90" s="15">
+      <c r="D90" s="14">
         <v>1495000</v>
       </c>
       <c r="E90" t="s">
@@ -17834,7 +17837,7 @@
       <c r="C91" t="s">
         <v>478</v>
       </c>
-      <c r="D91" s="15">
+      <c r="D91" s="14">
         <v>1775100</v>
       </c>
       <c r="E91" t="s">
@@ -17851,7 +17854,7 @@
       <c r="C92" t="s">
         <v>479</v>
       </c>
-      <c r="D92" s="15">
+      <c r="D92" s="14">
         <v>1961800</v>
       </c>
       <c r="E92" t="s">
@@ -17868,7 +17871,7 @@
       <c r="C93" t="s">
         <v>480</v>
       </c>
-      <c r="D93" s="15">
+      <c r="D93" s="14">
         <v>2709500</v>
       </c>
       <c r="E93" t="s">
@@ -17885,7 +17888,7 @@
       <c r="C94" t="s">
         <v>481</v>
       </c>
-      <c r="D94" s="15">
+      <c r="D94" s="14">
         <v>911700</v>
       </c>
       <c r="E94" t="s">
@@ -17902,7 +17905,7 @@
       <c r="C95" t="s">
         <v>482</v>
       </c>
-      <c r="D95" s="15">
+      <c r="D95" s="14">
         <v>1220200</v>
       </c>
       <c r="E95" t="s">
@@ -17919,7 +17922,7 @@
       <c r="C96" t="s">
         <v>483</v>
       </c>
-      <c r="D96" s="15">
+      <c r="D96" s="14">
         <v>1056900</v>
       </c>
       <c r="E96" t="s">
@@ -17936,7 +17939,7 @@
       <c r="C97" t="s">
         <v>484</v>
       </c>
-      <c r="D97" s="15">
+      <c r="D97" s="14">
         <v>1378900</v>
       </c>
       <c r="E97" t="s">
@@ -17953,7 +17956,7 @@
       <c r="C98" t="s">
         <v>485</v>
       </c>
-      <c r="D98" s="15">
+      <c r="D98" s="14">
         <v>1728600</v>
       </c>
       <c r="E98" t="s">
@@ -17970,7 +17973,7 @@
       <c r="C99" t="s">
         <v>486</v>
       </c>
-      <c r="D99" s="15">
+      <c r="D99" s="14">
         <v>691700</v>
       </c>
       <c r="E99" t="s">
@@ -17987,7 +17990,7 @@
       <c r="C100" t="s">
         <v>487</v>
       </c>
-      <c r="D100" s="15">
+      <c r="D100" s="14">
         <v>766600</v>
       </c>
       <c r="E100" t="s">
@@ -18004,7 +18007,7 @@
       <c r="C101" t="s">
         <v>488</v>
       </c>
-      <c r="D101" s="15">
+      <c r="D101" s="14">
         <v>1515800</v>
       </c>
       <c r="E101" t="s">
@@ -18021,7 +18024,7 @@
       <c r="C102" t="s">
         <v>489</v>
       </c>
-      <c r="D102" s="15">
+      <c r="D102" s="14">
         <v>1633700</v>
       </c>
       <c r="E102" t="s">
@@ -18038,7 +18041,7 @@
       <c r="C103" t="s">
         <v>490</v>
       </c>
-      <c r="D103" s="15">
+      <c r="D103" s="14">
         <v>2215800</v>
       </c>
       <c r="E103" t="s">
@@ -18055,7 +18058,7 @@
       <c r="C104" t="s">
         <v>491</v>
       </c>
-      <c r="D104" s="15">
+      <c r="D104" s="14">
         <v>1951200</v>
       </c>
       <c r="E104" t="s">
@@ -18072,7 +18075,7 @@
       <c r="C105" t="s">
         <v>492</v>
       </c>
-      <c r="D105" s="15">
+      <c r="D105" s="14">
         <v>1909700</v>
       </c>
       <c r="E105" t="s">
@@ -18089,7 +18092,7 @@
       <c r="C106" t="s">
         <v>493</v>
       </c>
-      <c r="D106" s="15">
+      <c r="D106" s="14">
         <v>1873400</v>
       </c>
       <c r="E106" t="s">
@@ -18106,7 +18109,7 @@
       <c r="C107" t="s">
         <v>494</v>
       </c>
-      <c r="D107" s="15">
+      <c r="D107" s="14">
         <v>1268900</v>
       </c>
       <c r="E107" t="s">
@@ -18123,7 +18126,7 @@
       <c r="C108" t="s">
         <v>495</v>
       </c>
-      <c r="D108" s="15">
+      <c r="D108" s="14">
         <v>956300</v>
       </c>
       <c r="E108" t="s">
@@ -18140,7 +18143,7 @@
       <c r="C109" t="s">
         <v>496</v>
       </c>
-      <c r="D109" s="15">
+      <c r="D109" s="14">
         <v>336400</v>
       </c>
       <c r="E109" t="s">
@@ -18157,7 +18160,7 @@
       <c r="C110" s="12" t="s">
         <v>565</v>
       </c>
-      <c r="D110" s="15">
+      <c r="D110" s="14">
         <v>3805700</v>
       </c>
       <c r="E110" t="s">
@@ -18174,7 +18177,7 @@
       <c r="C111" t="s">
         <v>497</v>
       </c>
-      <c r="D111" s="15">
+      <c r="D111" s="14">
         <v>3834400</v>
       </c>
       <c r="E111" t="s">
@@ -18191,7 +18194,7 @@
       <c r="C112" t="s">
         <v>498</v>
       </c>
-      <c r="D112" s="15">
+      <c r="D112" s="14">
         <v>2494800</v>
       </c>
       <c r="E112" t="s">
@@ -18208,7 +18211,7 @@
       <c r="C113" t="s">
         <v>499</v>
       </c>
-      <c r="D113" s="15">
+      <c r="D113" s="14">
         <v>5329800</v>
       </c>
       <c r="E113" t="s">
@@ -18225,7 +18228,7 @@
       <c r="C114" t="s">
         <v>500</v>
       </c>
-      <c r="D114" s="15">
+      <c r="D114" s="14">
         <v>4617600</v>
       </c>
       <c r="E114" t="s">
@@ -18242,7 +18245,7 @@
       <c r="C115" t="s">
         <v>501</v>
       </c>
-      <c r="D115" s="15">
+      <c r="D115" s="14">
         <v>4613100</v>
       </c>
       <c r="E115" t="s">
@@ -18259,7 +18262,7 @@
       <c r="C116" t="s">
         <v>502</v>
       </c>
-      <c r="D116" s="15">
+      <c r="D116" s="14">
         <v>8482300</v>
       </c>
       <c r="E116" t="s">
@@ -18276,7 +18279,7 @@
       <c r="C117" t="s">
         <v>503</v>
       </c>
-      <c r="D117" s="15">
+      <c r="D117" s="14">
         <v>1555800</v>
       </c>
       <c r="E117" t="s">
@@ -18293,7 +18296,7 @@
       <c r="C118" t="s">
         <v>504</v>
       </c>
-      <c r="D118" s="15">
+      <c r="D118" s="14">
         <v>2317900</v>
       </c>
       <c r="E118" t="s">
@@ -18310,7 +18313,7 @@
       <c r="C119" t="s">
         <v>505</v>
       </c>
-      <c r="D119" s="15">
+      <c r="D119" s="14">
         <v>3175200</v>
       </c>
       <c r="E119" t="s">
@@ -18327,7 +18330,7 @@
       <c r="C120" t="s">
         <v>506</v>
       </c>
-      <c r="D120" s="15">
+      <c r="D120" s="14">
         <v>603300</v>
       </c>
       <c r="E120" t="s">
@@ -18344,7 +18347,7 @@
       <c r="C121" t="s">
         <v>507</v>
       </c>
-      <c r="D121" s="15">
+      <c r="D121" s="14">
         <v>442300</v>
       </c>
       <c r="E121" t="s">
@@ -18361,7 +18364,7 @@
       <c r="C122" t="s">
         <v>508</v>
       </c>
-      <c r="D122" s="15">
+      <c r="D122" s="14">
         <v>435500</v>
       </c>
       <c r="E122" t="s">
@@ -18378,7 +18381,7 @@
       <c r="C123" t="s">
         <v>509</v>
       </c>
-      <c r="D123" s="15">
+      <c r="D123" s="14">
         <v>499000</v>
       </c>
       <c r="E123" t="s">
@@ -18395,7 +18398,7 @@
       <c r="C124" t="s">
         <v>510</v>
       </c>
-      <c r="D124" s="15">
+      <c r="D124" s="14">
         <v>589700</v>
       </c>
       <c r="E124" t="s">
@@ -18412,7 +18415,7 @@
       <c r="C125" t="s">
         <v>511</v>
       </c>
-      <c r="D125" s="15">
+      <c r="D125" s="14">
         <v>499000</v>
       </c>
       <c r="E125" t="s">
@@ -18429,7 +18432,7 @@
       <c r="C126" t="s">
         <v>512</v>
       </c>
-      <c r="D126" s="15">
+      <c r="D126" s="14">
         <v>1519600</v>
       </c>
       <c r="E126" t="s">
@@ -18446,7 +18449,7 @@
       <c r="C127" t="s">
         <v>513</v>
       </c>
-      <c r="D127" s="15">
+      <c r="D127" s="14">
         <v>952600</v>
       </c>
       <c r="E127" t="s">
@@ -18463,7 +18466,7 @@
       <c r="C128" t="s">
         <v>514</v>
       </c>
-      <c r="D128" s="15">
+      <c r="D128" s="14">
         <v>1038700</v>
       </c>
       <c r="E128" t="s">
@@ -18480,7 +18483,7 @@
       <c r="C129" t="s">
         <v>515</v>
       </c>
-      <c r="D129" s="15">
+      <c r="D129" s="14">
         <v>839200</v>
       </c>
       <c r="E129" t="s">
@@ -18497,7 +18500,7 @@
       <c r="C130" t="s">
         <v>516</v>
       </c>
-      <c r="D130" s="15">
+      <c r="D130" s="14">
         <v>961600</v>
       </c>
       <c r="E130" t="s">
@@ -18514,7 +18517,7 @@
       <c r="C131" t="s">
         <v>517</v>
       </c>
-      <c r="D131" s="15">
+      <c r="D131" s="14">
         <v>1723700</v>
       </c>
       <c r="E131" t="s">
@@ -18531,7 +18534,7 @@
       <c r="C132" t="s">
         <v>518</v>
       </c>
-      <c r="D132" s="15">
+      <c r="D132" s="14">
         <v>2206800</v>
       </c>
       <c r="E132" t="s">
@@ -18548,7 +18551,7 @@
       <c r="C133" t="s">
         <v>519</v>
       </c>
-      <c r="D133" s="15">
+      <c r="D133" s="14">
         <v>2544700</v>
       </c>
       <c r="E133" t="s">
@@ -18565,7 +18568,7 @@
       <c r="C134" t="s">
         <v>520</v>
       </c>
-      <c r="D134" s="15">
+      <c r="D134" s="14">
         <v>2857700</v>
       </c>
       <c r="E134" t="s">
@@ -18582,7 +18585,7 @@
       <c r="C135" t="s">
         <v>521</v>
       </c>
-      <c r="D135" s="15">
+      <c r="D135" s="14">
         <v>2794200</v>
       </c>
       <c r="E135" t="s">
@@ -18599,7 +18602,7 @@
       <c r="C136" t="s">
         <v>522</v>
       </c>
-      <c r="D136" s="15">
+      <c r="D136" s="14">
         <v>2236200</v>
       </c>
       <c r="E136" t="s">
@@ -18616,7 +18619,7 @@
       <c r="C137" t="s">
         <v>523</v>
       </c>
-      <c r="D137" s="15">
+      <c r="D137" s="14">
         <v>244900</v>
       </c>
       <c r="E137" t="s">
@@ -18633,7 +18636,7 @@
       <c r="C138" t="s">
         <v>524</v>
       </c>
-      <c r="D138" s="15">
+      <c r="D138" s="14">
         <v>208700</v>
       </c>
       <c r="E138" t="s">
@@ -18650,7 +18653,7 @@
       <c r="C139" t="s">
         <v>525</v>
       </c>
-      <c r="D139" s="15">
+      <c r="D139" s="14">
         <v>276700</v>
       </c>
       <c r="E139" t="s">
@@ -18667,7 +18670,7 @@
       <c r="C140" t="s">
         <v>526</v>
       </c>
-      <c r="D140" s="15">
+      <c r="D140" s="14">
         <v>412800</v>
       </c>
       <c r="E140" t="s">
@@ -18684,7 +18687,7 @@
       <c r="C141" t="s">
         <v>527</v>
       </c>
-      <c r="D141" s="15">
+      <c r="D141" s="14">
         <v>557900</v>
       </c>
       <c r="E141" t="s">
@@ -18701,7 +18704,7 @@
       <c r="C142" t="s">
         <v>528</v>
       </c>
-      <c r="D142" s="15">
+      <c r="D142" s="14">
         <v>537500</v>
       </c>
       <c r="E142" t="s">
@@ -18718,7 +18721,7 @@
       <c r="C143" t="s">
         <v>529</v>
       </c>
-      <c r="D143" s="15">
+      <c r="D143" s="14">
         <v>3805700</v>
       </c>
       <c r="E143" t="s">
@@ -18735,7 +18738,7 @@
       <c r="C144" t="s">
         <v>530</v>
       </c>
-      <c r="D144" s="15">
+      <c r="D144" s="14">
         <v>2948400</v>
       </c>
       <c r="E144" t="s">
@@ -18752,7 +18755,7 @@
       <c r="C145" t="s">
         <v>531</v>
       </c>
-      <c r="D145" s="15">
+      <c r="D145" s="14">
         <v>1388000</v>
       </c>
       <c r="E145" t="s">
@@ -18769,7 +18772,7 @@
       <c r="C146" t="s">
         <v>532</v>
       </c>
-      <c r="D146" s="15">
+      <c r="D146" s="14">
         <v>458100</v>
       </c>
       <c r="E146" t="s">
@@ -18786,7 +18789,7 @@
       <c r="C147" t="s">
         <v>533</v>
       </c>
-      <c r="D147" s="15">
+      <c r="D147" s="14">
         <v>335700</v>
       </c>
       <c r="E147" t="s">
@@ -18803,7 +18806,7 @@
       <c r="C148" t="s">
         <v>534</v>
       </c>
-      <c r="D148" s="15">
+      <c r="D148" s="14">
         <v>669100</v>
       </c>
       <c r="E148" t="s">
@@ -18820,7 +18823,7 @@
       <c r="C149" t="s">
         <v>535</v>
       </c>
-      <c r="D149" s="15">
+      <c r="D149" s="14">
         <v>739400</v>
       </c>
       <c r="E149" t="s">
@@ -18837,7 +18840,7 @@
       <c r="C150" t="s">
         <v>536</v>
       </c>
-      <c r="D150" s="15">
+      <c r="D150" s="14">
         <v>7557000</v>
       </c>
       <c r="E150" t="s">
@@ -18854,7 +18857,7 @@
       <c r="C151" t="s">
         <v>537</v>
       </c>
-      <c r="D151" s="15">
+      <c r="D151" s="14">
         <v>417300</v>
       </c>
       <c r="E151" t="s">
@@ -18871,7 +18874,7 @@
       <c r="C152" t="s">
         <v>538</v>
       </c>
-      <c r="D152" s="15">
+      <c r="D152" s="14">
         <v>1197500</v>
       </c>
       <c r="E152" t="s">
@@ -18888,7 +18891,7 @@
       <c r="C153" t="s">
         <v>539</v>
       </c>
-      <c r="D153" s="15">
+      <c r="D153" s="14">
         <v>1224700</v>
       </c>
       <c r="E153" t="s">
@@ -18905,7 +18908,7 @@
       <c r="C154" t="s">
         <v>540</v>
       </c>
-      <c r="D154" s="15">
+      <c r="D154" s="14">
         <v>2540200</v>
       </c>
       <c r="E154" t="s">
@@ -18922,7 +18925,7 @@
       <c r="C155" t="s">
         <v>541</v>
       </c>
-      <c r="D155" s="15">
+      <c r="D155" s="14">
         <v>2540200</v>
       </c>
       <c r="E155" t="s">
@@ -18939,7 +18942,7 @@
       <c r="C156" t="s">
         <v>542</v>
       </c>
-      <c r="D156" s="15">
+      <c r="D156" s="14">
         <v>122500</v>
       </c>
       <c r="E156" t="s">
@@ -18956,7 +18959,7 @@
       <c r="C157" t="s">
         <v>543</v>
       </c>
-      <c r="D157" s="15">
+      <c r="D157" s="14">
         <v>2676200</v>
       </c>
       <c r="E157" t="s">
@@ -18973,7 +18976,7 @@
       <c r="C158" t="s">
         <v>544</v>
       </c>
-      <c r="D158" s="15">
+      <c r="D158" s="14">
         <v>2712500</v>
       </c>
       <c r="E158" t="s">
@@ -18990,7 +18993,7 @@
       <c r="C159" t="s">
         <v>545</v>
       </c>
-      <c r="D159" s="15">
+      <c r="D159" s="14">
         <v>2041200</v>
       </c>
       <c r="E159" t="s">
@@ -19007,7 +19010,7 @@
       <c r="C160" t="s">
         <v>546</v>
       </c>
-      <c r="D160" s="15">
+      <c r="D160" s="14">
         <v>1360800</v>
       </c>
       <c r="E160" t="s">
@@ -19024,7 +19027,7 @@
       <c r="C161" t="s">
         <v>547</v>
       </c>
-      <c r="D161" s="15">
+      <c r="D161" s="14">
         <v>1168000</v>
       </c>
       <c r="E161" t="s">
@@ -19041,7 +19044,7 @@
       <c r="C162" t="s">
         <v>548</v>
       </c>
-      <c r="D162" s="15">
+      <c r="D162" s="14">
         <v>2335200</v>
       </c>
       <c r="E162" t="s">
@@ -19058,7 +19061,7 @@
       <c r="C163" t="s">
         <v>549</v>
       </c>
-      <c r="D163" s="15">
+      <c r="D163" s="14">
         <v>1432200</v>
       </c>
       <c r="E163" t="s">
@@ -19075,7 +19078,7 @@
       <c r="C164" t="s">
         <v>550</v>
       </c>
-      <c r="D164" s="15">
+      <c r="D164" s="14">
         <v>1067600</v>
       </c>
       <c r="E164" t="s">
@@ -19092,7 +19095,7 @@
       <c r="C165" t="s">
         <v>551</v>
       </c>
-      <c r="D165" s="15">
+      <c r="D165" s="14">
         <v>966000</v>
       </c>
       <c r="E165" t="s">
@@ -19109,7 +19112,7 @@
       <c r="C166" t="s">
         <v>552</v>
       </c>
-      <c r="D166" s="15">
+      <c r="D166" s="14">
         <v>846700</v>
       </c>
       <c r="E166" t="s">
@@ -19126,7 +19129,7 @@
       <c r="C167" t="s">
         <v>553</v>
       </c>
-      <c r="D167" s="15">
+      <c r="D167" s="14">
         <v>926100</v>
       </c>
       <c r="E167" t="s">
@@ -19143,7 +19146,7 @@
       <c r="C168" t="s">
         <v>554</v>
       </c>
-      <c r="D168" s="15">
+      <c r="D168" s="14">
         <v>915600</v>
       </c>
       <c r="E168" t="s">
@@ -19160,7 +19163,7 @@
       <c r="C169" t="s">
         <v>555</v>
       </c>
-      <c r="D169" s="15">
+      <c r="D169" s="14">
         <v>292300</v>
       </c>
       <c r="E169" t="s">
@@ -19177,7 +19180,7 @@
       <c r="C170" t="s">
         <v>556</v>
       </c>
-      <c r="D170" s="15">
+      <c r="D170" s="14">
         <v>2335200</v>
       </c>
       <c r="E170" t="s">
@@ -19194,7 +19197,7 @@
       <c r="C171" t="s">
         <v>557</v>
       </c>
-      <c r="D171" s="15">
+      <c r="D171" s="14">
         <v>1432200</v>
       </c>
       <c r="E171" t="s">
@@ -19211,7 +19214,7 @@
       <c r="C172" t="s">
         <v>558</v>
       </c>
-      <c r="D172" s="15">
+      <c r="D172" s="14">
         <v>1067600</v>
       </c>
       <c r="E172" t="s">
@@ -19228,7 +19231,7 @@
       <c r="C173" t="s">
         <v>559</v>
       </c>
-      <c r="D173" s="15">
+      <c r="D173" s="14">
         <v>966000</v>
       </c>
       <c r="E173" t="s">
@@ -19245,7 +19248,7 @@
       <c r="C174" t="s">
         <v>560</v>
       </c>
-      <c r="D174" s="15">
+      <c r="D174" s="14">
         <v>846700</v>
       </c>
       <c r="E174" t="s">
@@ -19262,7 +19265,7 @@
       <c r="C175" t="s">
         <v>561</v>
       </c>
-      <c r="D175" s="15">
+      <c r="D175" s="14">
         <v>926100</v>
       </c>
       <c r="E175" t="s">
@@ -19279,7 +19282,7 @@
       <c r="C176" t="s">
         <v>562</v>
       </c>
-      <c r="D176" s="15">
+      <c r="D176" s="14">
         <v>915600</v>
       </c>
       <c r="E176" t="s">
@@ -19296,7 +19299,7 @@
       <c r="C177" t="s">
         <v>563</v>
       </c>
-      <c r="D177" s="15">
+      <c r="D177" s="14">
         <v>292300</v>
       </c>
       <c r="E177" t="s">
@@ -19312,8 +19315,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U177"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="K60" sqref="K60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19411,7 +19414,7 @@
         <v>385</v>
       </c>
       <c r="K2" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="S2">
         <v>1</v>
@@ -19440,7 +19443,7 @@
         <v>385</v>
       </c>
       <c r="K3" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="S3">
         <v>1</v>
@@ -19469,7 +19472,7 @@
         <v>385</v>
       </c>
       <c r="K4" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="S4">
         <v>1</v>
@@ -19498,7 +19501,7 @@
         <v>385</v>
       </c>
       <c r="K5" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="S5">
         <v>1</v>
@@ -19527,7 +19530,7 @@
         <v>385</v>
       </c>
       <c r="K6" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="S6">
         <v>1</v>
@@ -19556,7 +19559,7 @@
         <v>385</v>
       </c>
       <c r="K7" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="S7">
         <v>1</v>
@@ -19585,7 +19588,7 @@
         <v>385</v>
       </c>
       <c r="K8" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="S8">
         <v>1</v>
@@ -19614,7 +19617,7 @@
         <v>385</v>
       </c>
       <c r="K9" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="S9">
         <v>1</v>
@@ -19643,7 +19646,7 @@
         <v>385</v>
       </c>
       <c r="K10" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="S10">
         <v>1</v>
@@ -19672,7 +19675,7 @@
         <v>385</v>
       </c>
       <c r="K11" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="S11">
         <v>1</v>
@@ -19701,7 +19704,7 @@
         <v>385</v>
       </c>
       <c r="K12" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="S12">
         <v>1</v>
@@ -19730,7 +19733,7 @@
         <v>385</v>
       </c>
       <c r="K13" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="S13">
         <v>1</v>
@@ -19759,7 +19762,7 @@
         <v>385</v>
       </c>
       <c r="K14" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="S14">
         <v>1</v>
@@ -19788,7 +19791,7 @@
         <v>385</v>
       </c>
       <c r="K15" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="S15">
         <v>1</v>
@@ -19817,7 +19820,7 @@
         <v>385</v>
       </c>
       <c r="K16" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="S16">
         <v>1</v>
@@ -19846,7 +19849,7 @@
         <v>385</v>
       </c>
       <c r="K17" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="S17">
         <v>1</v>
@@ -19875,7 +19878,7 @@
         <v>385</v>
       </c>
       <c r="K18" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="S18">
         <v>1</v>
@@ -19904,7 +19907,7 @@
         <v>385</v>
       </c>
       <c r="K19" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="S19">
         <v>1</v>
@@ -19933,7 +19936,7 @@
         <v>385</v>
       </c>
       <c r="K20" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="S20">
         <v>1</v>
@@ -19962,7 +19965,7 @@
         <v>385</v>
       </c>
       <c r="K21" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="S21">
         <v>1</v>
@@ -19991,7 +19994,7 @@
         <v>385</v>
       </c>
       <c r="K22" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="S22">
         <v>1</v>
@@ -20020,7 +20023,7 @@
         <v>385</v>
       </c>
       <c r="K23" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="S23">
         <v>1</v>
@@ -20049,7 +20052,7 @@
         <v>385</v>
       </c>
       <c r="K24" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="S24">
         <v>1</v>
@@ -20078,7 +20081,7 @@
         <v>385</v>
       </c>
       <c r="K25" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="S25">
         <v>1</v>
@@ -20107,7 +20110,7 @@
         <v>385</v>
       </c>
       <c r="K26" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="S26">
         <v>1</v>
@@ -20136,7 +20139,7 @@
         <v>385</v>
       </c>
       <c r="K27" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="S27">
         <v>1</v>
@@ -20165,7 +20168,7 @@
         <v>385</v>
       </c>
       <c r="K28" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="S28">
         <v>1</v>
@@ -20194,7 +20197,7 @@
         <v>385</v>
       </c>
       <c r="K29" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="S29">
         <v>1</v>
@@ -20223,7 +20226,7 @@
         <v>385</v>
       </c>
       <c r="K30" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="S30">
         <v>1</v>
@@ -20249,7 +20252,7 @@
         <v>351</v>
       </c>
       <c r="K31" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="S31">
         <v>1</v>
@@ -20275,7 +20278,7 @@
         <v>351</v>
       </c>
       <c r="K32" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="S32">
         <v>1</v>
@@ -20304,7 +20307,7 @@
         <v>385</v>
       </c>
       <c r="K33" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="S33">
         <v>1</v>
@@ -20333,7 +20336,7 @@
         <v>385</v>
       </c>
       <c r="K34" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="S34">
         <v>1</v>
@@ -20362,7 +20365,7 @@
         <v>385</v>
       </c>
       <c r="K35" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="S35">
         <v>1</v>
@@ -20391,7 +20394,7 @@
         <v>385</v>
       </c>
       <c r="K36" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="S36">
         <v>1</v>
@@ -20420,7 +20423,7 @@
         <v>385</v>
       </c>
       <c r="K37" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="S37">
         <v>1</v>
@@ -20449,7 +20452,7 @@
         <v>385</v>
       </c>
       <c r="K38" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="S38">
         <v>1</v>
@@ -20478,7 +20481,7 @@
         <v>385</v>
       </c>
       <c r="K39" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="S39">
         <v>1</v>
@@ -20507,7 +20510,7 @@
         <v>385</v>
       </c>
       <c r="K40" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="S40">
         <v>1</v>
@@ -20536,7 +20539,7 @@
         <v>385</v>
       </c>
       <c r="K41" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="S41">
         <v>1</v>
@@ -20565,7 +20568,7 @@
         <v>385</v>
       </c>
       <c r="K42" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="S42">
         <v>1</v>
@@ -20594,7 +20597,7 @@
         <v>385</v>
       </c>
       <c r="K43" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="S43">
         <v>1</v>
@@ -20623,7 +20626,7 @@
         <v>385</v>
       </c>
       <c r="K44" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="S44">
         <v>1</v>
@@ -20652,7 +20655,7 @@
         <v>385</v>
       </c>
       <c r="K45" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="S45">
         <v>1</v>
@@ -20678,7 +20681,7 @@
         <v>351</v>
       </c>
       <c r="K46" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="S46">
         <v>1</v>
@@ -20707,7 +20710,7 @@
         <v>385</v>
       </c>
       <c r="K47" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="S47">
         <v>1</v>
@@ -20736,7 +20739,7 @@
         <v>385</v>
       </c>
       <c r="K48" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="S48">
         <v>1</v>
@@ -20765,7 +20768,7 @@
         <v>385</v>
       </c>
       <c r="K49" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="S49">
         <v>1</v>
@@ -20794,7 +20797,7 @@
         <v>385</v>
       </c>
       <c r="K50" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="S50">
         <v>1</v>
@@ -20823,7 +20826,7 @@
         <v>385</v>
       </c>
       <c r="K51" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="S51">
         <v>1</v>
@@ -20852,7 +20855,7 @@
         <v>385</v>
       </c>
       <c r="K52" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="S52">
         <v>1</v>
@@ -20881,7 +20884,7 @@
         <v>385</v>
       </c>
       <c r="K53" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="S53">
         <v>1</v>
@@ -20910,7 +20913,7 @@
         <v>385</v>
       </c>
       <c r="K54" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="S54">
         <v>1</v>
@@ -20939,7 +20942,7 @@
         <v>385</v>
       </c>
       <c r="K55" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="S55">
         <v>1</v>
@@ -20968,7 +20971,7 @@
         <v>385</v>
       </c>
       <c r="K56" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="S56">
         <v>1</v>
@@ -20997,7 +21000,7 @@
         <v>385</v>
       </c>
       <c r="K57" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="S57">
         <v>1</v>
@@ -21026,7 +21029,7 @@
         <v>385</v>
       </c>
       <c r="K58" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="S58">
         <v>1</v>
@@ -21055,7 +21058,7 @@
         <v>385</v>
       </c>
       <c r="K59" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="S59">
         <v>1</v>
@@ -21084,7 +21087,7 @@
         <v>385</v>
       </c>
       <c r="K60" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="S60">
         <v>1</v>
@@ -21113,7 +21116,7 @@
         <v>385</v>
       </c>
       <c r="K61" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="S61">
         <v>1</v>
@@ -21142,7 +21145,7 @@
         <v>385</v>
       </c>
       <c r="K62" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="S62">
         <v>1</v>
@@ -21171,7 +21174,7 @@
         <v>385</v>
       </c>
       <c r="K63" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="S63">
         <v>1</v>
@@ -21200,7 +21203,7 @@
         <v>385</v>
       </c>
       <c r="K64" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="S64">
         <v>1</v>
@@ -21229,7 +21232,7 @@
         <v>385</v>
       </c>
       <c r="K65" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="S65">
         <v>1</v>
@@ -21258,7 +21261,7 @@
         <v>385</v>
       </c>
       <c r="K66" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="S66">
         <v>1</v>
@@ -21287,7 +21290,7 @@
         <v>385</v>
       </c>
       <c r="K67" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="S67">
         <v>1</v>
@@ -21316,7 +21319,7 @@
         <v>385</v>
       </c>
       <c r="K68" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="S68">
         <v>1</v>
@@ -21345,7 +21348,7 @@
         <v>385</v>
       </c>
       <c r="K69" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="S69">
         <v>1</v>
@@ -21374,7 +21377,7 @@
         <v>385</v>
       </c>
       <c r="K70" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="S70">
         <v>1</v>
@@ -21403,7 +21406,7 @@
         <v>385</v>
       </c>
       <c r="K71" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="S71">
         <v>1</v>
@@ -21432,7 +21435,7 @@
         <v>385</v>
       </c>
       <c r="K72" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="S72">
         <v>1</v>
@@ -21461,7 +21464,7 @@
         <v>385</v>
       </c>
       <c r="K73" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="S73">
         <v>1</v>
@@ -21490,7 +21493,7 @@
         <v>385</v>
       </c>
       <c r="K74" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="S74">
         <v>1</v>
@@ -21519,7 +21522,7 @@
         <v>385</v>
       </c>
       <c r="K75" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="S75">
         <v>1</v>
@@ -21548,7 +21551,7 @@
         <v>385</v>
       </c>
       <c r="K76" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="S76">
         <v>1</v>
@@ -21577,7 +21580,7 @@
         <v>385</v>
       </c>
       <c r="K77" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="S77">
         <v>1</v>
@@ -21606,7 +21609,7 @@
         <v>385</v>
       </c>
       <c r="K78" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="S78">
         <v>1</v>
@@ -21632,7 +21635,7 @@
         <v>351</v>
       </c>
       <c r="K79" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="S79">
         <v>1</v>
@@ -21661,7 +21664,7 @@
         <v>385</v>
       </c>
       <c r="K80" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="S80">
         <v>1</v>
@@ -21690,7 +21693,7 @@
         <v>385</v>
       </c>
       <c r="K81" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="S81">
         <v>1</v>
@@ -21719,7 +21722,7 @@
         <v>385</v>
       </c>
       <c r="K82" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="S82">
         <v>1</v>
@@ -21748,7 +21751,7 @@
         <v>385</v>
       </c>
       <c r="K83" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="S83">
         <v>1</v>
@@ -21777,7 +21780,7 @@
         <v>385</v>
       </c>
       <c r="K84" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="S84">
         <v>1</v>
@@ -21806,7 +21809,7 @@
         <v>385</v>
       </c>
       <c r="K85" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="S85">
         <v>1</v>
@@ -21835,7 +21838,7 @@
         <v>385</v>
       </c>
       <c r="K86" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="S86">
         <v>1</v>
@@ -21864,7 +21867,7 @@
         <v>385</v>
       </c>
       <c r="K87" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="S87">
         <v>1</v>
@@ -21893,7 +21896,7 @@
         <v>385</v>
       </c>
       <c r="K88" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="S88">
         <v>1</v>
@@ -21922,7 +21925,7 @@
         <v>385</v>
       </c>
       <c r="K89" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="S89">
         <v>1</v>
@@ -21951,7 +21954,7 @@
         <v>385</v>
       </c>
       <c r="K90" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="S90">
         <v>1</v>
@@ -21980,7 +21983,7 @@
         <v>385</v>
       </c>
       <c r="K91" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="S91">
         <v>1</v>
@@ -22009,7 +22012,7 @@
         <v>385</v>
       </c>
       <c r="K92" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="S92">
         <v>1</v>
@@ -22038,7 +22041,7 @@
         <v>385</v>
       </c>
       <c r="K93" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="S93">
         <v>1</v>
@@ -22064,7 +22067,7 @@
         <v>351</v>
       </c>
       <c r="K94" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="S94">
         <v>1</v>
@@ -22093,7 +22096,7 @@
         <v>385</v>
       </c>
       <c r="K95" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="S95">
         <v>1</v>
@@ -22122,7 +22125,7 @@
         <v>385</v>
       </c>
       <c r="K96" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="S96">
         <v>1</v>
@@ -22151,7 +22154,7 @@
         <v>385</v>
       </c>
       <c r="K97" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="S97">
         <v>1</v>
@@ -22180,7 +22183,7 @@
         <v>385</v>
       </c>
       <c r="K98" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="S98">
         <v>1</v>
@@ -22209,7 +22212,7 @@
         <v>385</v>
       </c>
       <c r="K99" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="S99">
         <v>1</v>
@@ -22238,7 +22241,7 @@
         <v>385</v>
       </c>
       <c r="K100" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="S100">
         <v>1</v>
@@ -22267,7 +22270,7 @@
         <v>386</v>
       </c>
       <c r="K101" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="S101">
         <v>1</v>
@@ -22296,7 +22299,7 @@
         <v>386</v>
       </c>
       <c r="K102" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="S102">
         <v>1</v>
@@ -22325,7 +22328,7 @@
         <v>386</v>
       </c>
       <c r="K103" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="S103">
         <v>1</v>
@@ -22354,7 +22357,7 @@
         <v>386</v>
       </c>
       <c r="K104" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="S104">
         <v>1</v>
@@ -22383,7 +22386,7 @@
         <v>386</v>
       </c>
       <c r="K105" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="S105">
         <v>1</v>
@@ -22412,7 +22415,7 @@
         <v>386</v>
       </c>
       <c r="K106" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="S106">
         <v>1</v>
@@ -22441,7 +22444,7 @@
         <v>386</v>
       </c>
       <c r="K107" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="S107">
         <v>1</v>
@@ -22467,7 +22470,7 @@
         <v>351</v>
       </c>
       <c r="K108" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="S108">
         <v>1</v>
@@ -22493,7 +22496,7 @@
         <v>351</v>
       </c>
       <c r="K109" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="S109">
         <v>1</v>
@@ -22522,7 +22525,7 @@
         <v>386</v>
       </c>
       <c r="K110" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="S110">
         <v>1</v>
@@ -22551,7 +22554,7 @@
         <v>386</v>
       </c>
       <c r="K111" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="S111">
         <v>1</v>
@@ -22580,7 +22583,7 @@
         <v>386</v>
       </c>
       <c r="K112" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="S112">
         <v>1</v>
@@ -22609,7 +22612,7 @@
         <v>386</v>
       </c>
       <c r="K113" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="S113">
         <v>1</v>
@@ -22638,7 +22641,7 @@
         <v>385</v>
       </c>
       <c r="K114" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="S114">
         <v>1</v>
@@ -22667,7 +22670,7 @@
         <v>385</v>
       </c>
       <c r="K115" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="S115">
         <v>1</v>
@@ -22696,7 +22699,7 @@
         <v>385</v>
       </c>
       <c r="K116" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="S116">
         <v>1</v>
@@ -22725,7 +22728,7 @@
         <v>385</v>
       </c>
       <c r="K117" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="S117">
         <v>1</v>
@@ -22754,7 +22757,7 @@
         <v>386</v>
       </c>
       <c r="K118" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="S118">
         <v>1</v>
@@ -22780,7 +22783,7 @@
         <v>351</v>
       </c>
       <c r="K119" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="S119">
         <v>1</v>
@@ -22806,7 +22809,7 @@
         <v>351</v>
       </c>
       <c r="K120" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="S120">
         <v>1</v>
@@ -22832,7 +22835,7 @@
         <v>351</v>
       </c>
       <c r="K121" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="S121">
         <v>1</v>
@@ -22858,7 +22861,7 @@
         <v>351</v>
       </c>
       <c r="K122" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="S122">
         <v>1</v>
@@ -22884,7 +22887,7 @@
         <v>351</v>
       </c>
       <c r="K123" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="S123">
         <v>1</v>
@@ -22910,7 +22913,7 @@
         <v>351</v>
       </c>
       <c r="K124" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="S124">
         <v>1</v>
@@ -22936,7 +22939,7 @@
         <v>351</v>
       </c>
       <c r="K125" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="S125">
         <v>1</v>
@@ -22962,7 +22965,7 @@
         <v>351</v>
       </c>
       <c r="K126" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="S126">
         <v>1</v>
@@ -22988,7 +22991,7 @@
         <v>351</v>
       </c>
       <c r="K127" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="S127">
         <v>1</v>
@@ -23014,7 +23017,7 @@
         <v>351</v>
       </c>
       <c r="K128" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="S128">
         <v>1</v>
@@ -23040,7 +23043,7 @@
         <v>351</v>
       </c>
       <c r="K129" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="S129">
         <v>1</v>
@@ -23069,7 +23072,7 @@
         <v>385</v>
       </c>
       <c r="K130" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="S130">
         <v>1</v>
@@ -23098,7 +23101,7 @@
         <v>385</v>
       </c>
       <c r="K131" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="S131">
         <v>1</v>
@@ -23127,7 +23130,7 @@
         <v>385</v>
       </c>
       <c r="K132" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="S132">
         <v>1</v>
@@ -23156,7 +23159,7 @@
         <v>385</v>
       </c>
       <c r="K133" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="S133">
         <v>1</v>
@@ -23185,7 +23188,7 @@
         <v>385</v>
       </c>
       <c r="K134" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="S134">
         <v>1</v>
@@ -23214,7 +23217,7 @@
         <v>385</v>
       </c>
       <c r="K135" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="S135">
         <v>1</v>
@@ -23243,7 +23246,7 @@
         <v>385</v>
       </c>
       <c r="K136" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="S136">
         <v>1</v>
@@ -23269,7 +23272,7 @@
         <v>351</v>
       </c>
       <c r="K137" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="S137">
         <v>1</v>
@@ -23295,7 +23298,7 @@
         <v>351</v>
       </c>
       <c r="K138" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="S138">
         <v>1</v>
@@ -23321,7 +23324,7 @@
         <v>351</v>
       </c>
       <c r="K139" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="S139">
         <v>1</v>
@@ -23347,7 +23350,7 @@
         <v>351</v>
       </c>
       <c r="K140" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="S140">
         <v>1</v>
@@ -23373,7 +23376,7 @@
         <v>351</v>
       </c>
       <c r="K141" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="S141">
         <v>1</v>
@@ -23399,7 +23402,7 @@
         <v>351</v>
       </c>
       <c r="K142" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="S142">
         <v>1</v>
@@ -23428,7 +23431,7 @@
         <v>385</v>
       </c>
       <c r="K143" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="S143">
         <v>1</v>
@@ -23457,7 +23460,7 @@
         <v>385</v>
       </c>
       <c r="K144" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="S144">
         <v>1</v>
@@ -23486,7 +23489,7 @@
         <v>385</v>
       </c>
       <c r="K145" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="S145">
         <v>1</v>
@@ -23515,7 +23518,7 @@
         <v>385</v>
       </c>
       <c r="K146" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="S146">
         <v>1</v>
@@ -23544,7 +23547,7 @@
         <v>385</v>
       </c>
       <c r="K147" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="S147">
         <v>1</v>
@@ -23570,7 +23573,7 @@
         <v>351</v>
       </c>
       <c r="K148" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="S148">
         <v>1</v>
@@ -23596,7 +23599,7 @@
         <v>351</v>
       </c>
       <c r="K149" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="S149">
         <v>1</v>
@@ -23625,7 +23628,7 @@
         <v>385</v>
       </c>
       <c r="K150" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="S150">
         <v>1</v>
@@ -23651,7 +23654,7 @@
         <v>351</v>
       </c>
       <c r="K151" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="S151">
         <v>1</v>
@@ -23680,7 +23683,7 @@
         <v>385</v>
       </c>
       <c r="K152" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="S152">
         <v>1</v>
@@ -23706,7 +23709,7 @@
         <v>351</v>
       </c>
       <c r="K153" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="S153">
         <v>1</v>
@@ -23735,7 +23738,7 @@
         <v>385</v>
       </c>
       <c r="K154" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="S154">
         <v>1</v>
@@ -23764,7 +23767,7 @@
         <v>385</v>
       </c>
       <c r="K155" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="S155">
         <v>1</v>
@@ -23790,7 +23793,7 @@
         <v>351</v>
       </c>
       <c r="K156" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="S156">
         <v>1</v>
@@ -23819,7 +23822,7 @@
         <v>385</v>
       </c>
       <c r="K157" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="S157">
         <v>1</v>
@@ -23848,7 +23851,7 @@
         <v>385</v>
       </c>
       <c r="K158" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="S158">
         <v>1</v>
@@ -23877,7 +23880,7 @@
         <v>385</v>
       </c>
       <c r="K159" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="S159">
         <v>1</v>
@@ -23903,7 +23906,7 @@
         <v>351</v>
       </c>
       <c r="K160" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="S160">
         <v>1</v>
@@ -23929,7 +23932,7 @@
         <v>351</v>
       </c>
       <c r="K161" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="S161">
         <v>1</v>
@@ -23958,7 +23961,7 @@
         <v>385</v>
       </c>
       <c r="K162" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="S162">
         <v>1</v>
@@ -23987,7 +23990,7 @@
         <v>385</v>
       </c>
       <c r="K163" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="S163">
         <v>1</v>
@@ -24013,7 +24016,7 @@
         <v>351</v>
       </c>
       <c r="K164" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="S164">
         <v>1</v>
@@ -24042,7 +24045,7 @@
         <v>385</v>
       </c>
       <c r="K165" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="S165">
         <v>1</v>
@@ -24068,7 +24071,7 @@
         <v>351</v>
       </c>
       <c r="K166" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="S166">
         <v>1</v>
@@ -24097,7 +24100,7 @@
         <v>385</v>
       </c>
       <c r="K167" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="S167">
         <v>1</v>
@@ -24123,7 +24126,7 @@
         <v>351</v>
       </c>
       <c r="K168" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="S168">
         <v>1</v>
@@ -24149,7 +24152,7 @@
         <v>351</v>
       </c>
       <c r="K169" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="S169">
         <v>1</v>
@@ -24178,7 +24181,7 @@
         <v>385</v>
       </c>
       <c r="K170" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="S170">
         <v>1</v>
@@ -24207,7 +24210,7 @@
         <v>385</v>
       </c>
       <c r="K171" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="S171">
         <v>1</v>
@@ -24233,7 +24236,7 @@
         <v>351</v>
       </c>
       <c r="K172" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="S172">
         <v>1</v>
@@ -24262,7 +24265,7 @@
         <v>385</v>
       </c>
       <c r="K173" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="S173">
         <v>1</v>
@@ -24288,7 +24291,7 @@
         <v>351</v>
       </c>
       <c r="K174" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="S174">
         <v>1</v>
@@ -24314,7 +24317,7 @@
         <v>351</v>
       </c>
       <c r="K175" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="S175">
         <v>1</v>
@@ -24340,7 +24343,7 @@
         <v>351</v>
       </c>
       <c r="K176" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="S176">
         <v>1</v>
@@ -24366,7 +24369,7 @@
         <v>351</v>
       </c>
       <c r="K177" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="S177">
         <v>1</v>

--- a/Прайс Феникс.xlsx
+++ b/Прайс Феникс.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3098" uniqueCount="568">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3074" uniqueCount="565">
   <si>
     <t>Группа</t>
   </si>
@@ -1274,12 +1274,6 @@
     <t>public://1795.jpg</t>
   </si>
   <si>
-    <t>public://1796.jpg</t>
-  </si>
-  <si>
-    <t>public://1797.jpg</t>
-  </si>
-  <si>
     <t>public://1799.jpg</t>
   </si>
   <si>
@@ -1533,9 +1527,6 @@
   </si>
   <si>
     <t>public://1888.jpg</t>
-  </si>
-  <si>
-    <t>public://1889.jpg</t>
   </si>
   <si>
     <t>public://1890.jpg</t>
@@ -10272,7 +10263,7 @@
         <v>370</v>
       </c>
       <c r="D2" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="F2" t="str">
         <f>Лист1!E3</f>
@@ -10304,7 +10295,7 @@
         <v>371</v>
       </c>
       <c r="D3" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="F3" t="str">
         <f>Лист1!E4</f>
@@ -10336,7 +10327,7 @@
         <v>372</v>
       </c>
       <c r="D4" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="F4" t="str">
         <f>Лист1!E5</f>
@@ -10368,7 +10359,7 @@
         <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="F5" t="str">
         <f>Лист1!E6</f>
@@ -10400,7 +10391,7 @@
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="F6" t="str">
         <f>Лист1!E7</f>
@@ -10432,7 +10423,7 @@
         <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="F7" t="str">
         <f>Лист1!E8</f>
@@ -10464,7 +10455,7 @@
         <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="F8" t="str">
         <f>Лист1!E9</f>
@@ -10496,7 +10487,7 @@
         <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="F9" t="str">
         <f>Лист1!E10</f>
@@ -10528,7 +10519,7 @@
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="F10" t="str">
         <f>Лист1!E11</f>
@@ -10560,7 +10551,7 @@
         <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="F11" t="str">
         <f>Лист1!E12</f>
@@ -10592,7 +10583,7 @@
         <v>21</v>
       </c>
       <c r="D12" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="F12" t="str">
         <f>Лист1!E13</f>
@@ -10624,7 +10615,7 @@
         <v>22</v>
       </c>
       <c r="D13" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="F13" t="str">
         <f>Лист1!E14</f>
@@ -10656,7 +10647,7 @@
         <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="F14" t="str">
         <f>Лист1!E15</f>
@@ -10688,7 +10679,7 @@
         <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="F15" t="str">
         <f>Лист1!E16</f>
@@ -10720,7 +10711,7 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="F16" t="str">
         <f>Лист1!E17</f>
@@ -10752,7 +10743,7 @@
         <v>28</v>
       </c>
       <c r="D17" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="F17" t="str">
         <f>Лист1!E18</f>
@@ -10784,7 +10775,7 @@
         <v>30</v>
       </c>
       <c r="D18" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="F18" t="str">
         <f>Лист1!E19</f>
@@ -10816,7 +10807,7 @@
         <v>31</v>
       </c>
       <c r="D19" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="F19" t="str">
         <f>Лист1!E20</f>
@@ -10848,7 +10839,7 @@
         <v>33</v>
       </c>
       <c r="D20" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="F20" t="str">
         <f>Лист1!E21</f>
@@ -10880,7 +10871,7 @@
         <v>35</v>
       </c>
       <c r="D21" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="F21" t="str">
         <f>Лист1!E22</f>
@@ -10912,7 +10903,7 @@
         <v>36</v>
       </c>
       <c r="D22" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="F22" t="str">
         <f>Лист1!E23</f>
@@ -10944,7 +10935,7 @@
         <v>38</v>
       </c>
       <c r="D23" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="F23" t="str">
         <f>Лист1!E24</f>
@@ -10976,7 +10967,7 @@
         <v>39</v>
       </c>
       <c r="D24" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="F24" t="str">
         <f>Лист1!E25</f>
@@ -11008,7 +10999,7 @@
         <v>325</v>
       </c>
       <c r="D25" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="F25" t="str">
         <f>Лист1!E26</f>
@@ -11040,7 +11031,7 @@
         <v>41</v>
       </c>
       <c r="D26" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="F26" t="str">
         <f>Лист1!E27</f>
@@ -11072,7 +11063,7 @@
         <v>42</v>
       </c>
       <c r="D27" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="F27" t="str">
         <f>Лист1!E28</f>
@@ -11104,7 +11095,7 @@
         <v>44</v>
       </c>
       <c r="D28" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="F28" t="str">
         <f>Лист1!E29</f>
@@ -11136,7 +11127,7 @@
         <v>45</v>
       </c>
       <c r="D29" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="F29" t="str">
         <f>Лист1!E30</f>
@@ -11168,7 +11159,7 @@
         <v>47</v>
       </c>
       <c r="D30" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="F30" t="str">
         <f>Лист1!E31</f>
@@ -16283,10 +16274,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E177"/>
+  <dimension ref="A1:E174"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A32" sqref="A31:XFD32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16809,16 +16800,16 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>1796</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>48</v>
+        <v>1799</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>322</v>
       </c>
       <c r="C31" t="s">
         <v>418</v>
       </c>
       <c r="D31" s="14">
-        <v>1168000</v>
+        <v>4267200</v>
       </c>
       <c r="E31" t="s">
         <v>331</v>
@@ -16826,16 +16817,16 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>1797</v>
+        <v>1800</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>50</v>
+        <v>323</v>
       </c>
       <c r="C32" t="s">
         <v>419</v>
       </c>
       <c r="D32" s="14">
-        <v>1229300</v>
+        <v>3918600</v>
       </c>
       <c r="E32" t="s">
         <v>331</v>
@@ -16843,16 +16834,16 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>1799</v>
+        <v>1801</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>322</v>
+        <v>374</v>
       </c>
       <c r="C33" t="s">
         <v>420</v>
       </c>
       <c r="D33" s="14">
-        <v>4267200</v>
+        <v>3754800</v>
       </c>
       <c r="E33" t="s">
         <v>331</v>
@@ -16860,16 +16851,16 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>1800</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>323</v>
+        <v>1802</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>375</v>
       </c>
       <c r="C34" t="s">
         <v>421</v>
       </c>
       <c r="D34" s="14">
-        <v>3918600</v>
+        <v>4628400</v>
       </c>
       <c r="E34" t="s">
         <v>331</v>
@@ -16877,16 +16868,16 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>1801</v>
+        <v>1803</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C35" t="s">
         <v>422</v>
       </c>
       <c r="D35" s="14">
-        <v>3754800</v>
+        <v>4473000</v>
       </c>
       <c r="E35" t="s">
         <v>331</v>
@@ -16894,16 +16885,16 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>1802</v>
+        <v>1804</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="C36" t="s">
         <v>423</v>
       </c>
       <c r="D36" s="14">
-        <v>4628400</v>
+        <v>4145400</v>
       </c>
       <c r="E36" t="s">
         <v>331</v>
@@ -16911,16 +16902,16 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>1803</v>
+        <v>1805</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C37" t="s">
         <v>424</v>
       </c>
       <c r="D37" s="14">
-        <v>4473000</v>
+        <v>4750200</v>
       </c>
       <c r="E37" t="s">
         <v>331</v>
@@ -16928,16 +16919,16 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>1804</v>
+        <v>1806</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C38" t="s">
         <v>425</v>
       </c>
       <c r="D38" s="14">
-        <v>4145400</v>
+        <v>4090800</v>
       </c>
       <c r="E38" t="s">
         <v>331</v>
@@ -16945,16 +16936,16 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>1805</v>
+        <v>1807</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C39" t="s">
         <v>426</v>
       </c>
       <c r="D39" s="14">
-        <v>4750200</v>
+        <v>4624200</v>
       </c>
       <c r="E39" t="s">
         <v>331</v>
@@ -16962,16 +16953,16 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>1806</v>
+        <v>1808</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C40" t="s">
         <v>427</v>
       </c>
       <c r="D40" s="14">
-        <v>4090800</v>
+        <v>4636800</v>
       </c>
       <c r="E40" t="s">
         <v>331</v>
@@ -16979,16 +16970,16 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>1807</v>
+        <v>1809</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C41" t="s">
         <v>428</v>
       </c>
       <c r="D41" s="14">
-        <v>4624200</v>
+        <v>6077400</v>
       </c>
       <c r="E41" t="s">
         <v>331</v>
@@ -16996,16 +16987,16 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>1808</v>
+        <v>1810</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C42" t="s">
         <v>429</v>
       </c>
       <c r="D42" s="14">
-        <v>4636800</v>
+        <v>5632200</v>
       </c>
       <c r="E42" t="s">
         <v>331</v>
@@ -17013,16 +17004,16 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>1809</v>
+        <v>1811</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C43" t="s">
         <v>430</v>
       </c>
       <c r="D43" s="14">
-        <v>6077400</v>
+        <v>5859000</v>
       </c>
       <c r="E43" t="s">
         <v>331</v>
@@ -17030,16 +17021,16 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>1810</v>
+        <v>1812</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>383</v>
+        <v>69</v>
       </c>
       <c r="C44" t="s">
         <v>431</v>
       </c>
       <c r="D44" s="14">
-        <v>5632200</v>
+        <v>1224700</v>
       </c>
       <c r="E44" t="s">
         <v>331</v>
@@ -17047,16 +17038,16 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>1811</v>
+        <v>1813</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>384</v>
+        <v>71</v>
       </c>
       <c r="C45" t="s">
         <v>432</v>
       </c>
       <c r="D45" s="14">
-        <v>5859000</v>
+        <v>2556000</v>
       </c>
       <c r="E45" t="s">
         <v>331</v>
@@ -17064,16 +17055,16 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>1812</v>
+        <v>1814</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C46" t="s">
         <v>433</v>
       </c>
       <c r="D46" s="14">
-        <v>1224700</v>
+        <v>2934800</v>
       </c>
       <c r="E46" t="s">
         <v>331</v>
@@ -17081,16 +17072,16 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>1813</v>
+        <v>1815</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C47" t="s">
         <v>434</v>
       </c>
       <c r="D47" s="14">
-        <v>2556000</v>
+        <v>3923600</v>
       </c>
       <c r="E47" t="s">
         <v>331</v>
@@ -17098,16 +17089,16 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>1814</v>
+        <v>1816</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C48" t="s">
         <v>435</v>
       </c>
       <c r="D48" s="14">
-        <v>2934800</v>
+        <v>2903000</v>
       </c>
       <c r="E48" t="s">
         <v>331</v>
@@ -17115,16 +17106,16 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>1815</v>
+        <v>1817</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C49" t="s">
         <v>436</v>
       </c>
       <c r="D49" s="14">
-        <v>3923600</v>
+        <v>2256700</v>
       </c>
       <c r="E49" t="s">
         <v>331</v>
@@ -17132,16 +17123,16 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>1816</v>
+        <v>1820</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="C50" t="s">
         <v>437</v>
       </c>
       <c r="D50" s="14">
-        <v>2903000</v>
+        <v>4345500</v>
       </c>
       <c r="E50" t="s">
         <v>331</v>
@@ -17149,16 +17140,16 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>1817</v>
+        <v>1821</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="C51" t="s">
         <v>438</v>
       </c>
       <c r="D51" s="14">
-        <v>2256700</v>
+        <v>1344900</v>
       </c>
       <c r="E51" t="s">
         <v>331</v>
@@ -17166,16 +17157,16 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>1820</v>
+        <v>1822</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C52" t="s">
         <v>439</v>
       </c>
       <c r="D52" s="14">
-        <v>4345500</v>
+        <v>1274600</v>
       </c>
       <c r="E52" t="s">
         <v>331</v>
@@ -17183,16 +17174,16 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>1821</v>
+        <v>1823</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C53" t="s">
         <v>440</v>
       </c>
       <c r="D53" s="14">
-        <v>1344900</v>
+        <v>1541500</v>
       </c>
       <c r="E53" t="s">
         <v>331</v>
@@ -17200,16 +17191,16 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>1822</v>
+        <v>1824</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C54" t="s">
         <v>441</v>
       </c>
       <c r="D54" s="14">
-        <v>1274600</v>
+        <v>1635200</v>
       </c>
       <c r="E54" t="s">
         <v>331</v>
@@ -17217,16 +17208,16 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>1823</v>
+        <v>1825</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C55" t="s">
         <v>442</v>
       </c>
       <c r="D55" s="14">
-        <v>1541500</v>
+        <v>1635200</v>
       </c>
       <c r="E55" t="s">
         <v>331</v>
@@ -17234,16 +17225,16 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>1824</v>
+        <v>1826</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C56" t="s">
         <v>443</v>
       </c>
       <c r="D56" s="14">
-        <v>1635200</v>
+        <v>1541500</v>
       </c>
       <c r="E56" t="s">
         <v>331</v>
@@ -17251,10 +17242,10 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>1825</v>
+        <v>1827</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C57" t="s">
         <v>444</v>
@@ -17268,16 +17259,16 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>1826</v>
+        <v>1828</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C58" t="s">
         <v>445</v>
       </c>
       <c r="D58" s="14">
-        <v>1541500</v>
+        <v>1635200</v>
       </c>
       <c r="E58" t="s">
         <v>331</v>
@@ -17285,16 +17276,16 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>1827</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>97</v>
+        <v>1829</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>99</v>
       </c>
       <c r="C59" t="s">
         <v>446</v>
       </c>
       <c r="D59" s="14">
-        <v>1635200</v>
+        <v>1238300</v>
       </c>
       <c r="E59" t="s">
         <v>331</v>
@@ -17302,16 +17293,16 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>1828</v>
+        <v>1830</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C60" t="s">
         <v>447</v>
       </c>
       <c r="D60" s="14">
-        <v>1635200</v>
+        <v>1274600</v>
       </c>
       <c r="E60" t="s">
         <v>331</v>
@@ -17319,16 +17310,16 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>1829</v>
-      </c>
-      <c r="B61" s="7" t="s">
-        <v>99</v>
+        <v>1831</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>102</v>
       </c>
       <c r="C61" t="s">
         <v>448</v>
       </c>
       <c r="D61" s="14">
-        <v>1238300</v>
+        <v>1274600</v>
       </c>
       <c r="E61" t="s">
         <v>331</v>
@@ -17336,16 +17327,16 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>1830</v>
+        <v>1832</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C62" t="s">
         <v>449</v>
       </c>
       <c r="D62" s="14">
-        <v>1274600</v>
+        <v>1344900</v>
       </c>
       <c r="E62" t="s">
         <v>331</v>
@@ -17353,16 +17344,16 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>1831</v>
+        <v>1833</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C63" t="s">
         <v>450</v>
       </c>
       <c r="D63" s="14">
-        <v>1274600</v>
+        <v>1145300</v>
       </c>
       <c r="E63" t="s">
         <v>331</v>
@@ -17370,16 +17361,16 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>1832</v>
+        <v>1834</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C64" t="s">
         <v>451</v>
       </c>
       <c r="D64" s="14">
-        <v>1344900</v>
+        <v>1213400</v>
       </c>
       <c r="E64" t="s">
         <v>331</v>
@@ -17387,16 +17378,16 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>1833</v>
+        <v>1835</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C65" t="s">
         <v>452</v>
       </c>
       <c r="D65" s="14">
-        <v>1145300</v>
+        <v>988800</v>
       </c>
       <c r="E65" t="s">
         <v>331</v>
@@ -17404,16 +17395,16 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>1834</v>
+        <v>1836</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C66" t="s">
         <v>453</v>
       </c>
       <c r="D66" s="14">
-        <v>1213400</v>
+        <v>898100</v>
       </c>
       <c r="E66" t="s">
         <v>331</v>
@@ -17421,16 +17412,16 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>1835</v>
+        <v>1837</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C67" t="s">
         <v>454</v>
       </c>
       <c r="D67" s="14">
-        <v>988800</v>
+        <v>839200</v>
       </c>
       <c r="E67" t="s">
         <v>331</v>
@@ -17438,16 +17429,16 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>1836</v>
+        <v>1838</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C68" t="s">
         <v>455</v>
       </c>
       <c r="D68" s="14">
-        <v>898100</v>
+        <v>1306400</v>
       </c>
       <c r="E68" t="s">
         <v>331</v>
@@ -17455,16 +17446,16 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>1837</v>
+        <v>1839</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C69" t="s">
         <v>456</v>
       </c>
       <c r="D69" s="14">
-        <v>839200</v>
+        <v>2825900</v>
       </c>
       <c r="E69" t="s">
         <v>331</v>
@@ -17472,16 +17463,16 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>1838</v>
+        <v>1840</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="C70" t="s">
         <v>457</v>
       </c>
       <c r="D70" s="14">
-        <v>1306400</v>
+        <v>3504100</v>
       </c>
       <c r="E70" t="s">
         <v>331</v>
@@ -17489,16 +17480,16 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>1839</v>
+        <v>1841</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C71" t="s">
         <v>458</v>
       </c>
       <c r="D71" s="14">
-        <v>2825900</v>
+        <v>1798500</v>
       </c>
       <c r="E71" t="s">
         <v>331</v>
@@ -17506,16 +17497,16 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>1840</v>
+        <v>1842</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C72" t="s">
         <v>459</v>
       </c>
       <c r="D72" s="14">
-        <v>3504100</v>
+        <v>2382500</v>
       </c>
       <c r="E72" t="s">
         <v>331</v>
@@ -17523,16 +17514,16 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>1841</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>121</v>
+        <v>1843</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="C73" t="s">
         <v>460</v>
       </c>
       <c r="D73" s="14">
-        <v>1798500</v>
+        <v>1495000</v>
       </c>
       <c r="E73" t="s">
         <v>331</v>
@@ -17540,16 +17531,16 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>1842</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>123</v>
+        <v>1844</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>127</v>
       </c>
       <c r="C74" t="s">
         <v>461</v>
       </c>
       <c r="D74" s="14">
-        <v>2382500</v>
+        <v>1775100</v>
       </c>
       <c r="E74" t="s">
         <v>331</v>
@@ -17557,16 +17548,16 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>1843</v>
-      </c>
-      <c r="B75" s="7" t="s">
-        <v>125</v>
+        <v>1845</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>128</v>
       </c>
       <c r="C75" t="s">
         <v>462</v>
       </c>
       <c r="D75" s="14">
-        <v>1495000</v>
+        <v>1961800</v>
       </c>
       <c r="E75" t="s">
         <v>331</v>
@@ -17574,16 +17565,16 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>1844</v>
-      </c>
-      <c r="B76" s="7" t="s">
-        <v>127</v>
+        <v>1846</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>129</v>
       </c>
       <c r="C76" t="s">
         <v>463</v>
       </c>
       <c r="D76" s="14">
-        <v>1775100</v>
+        <v>2709500</v>
       </c>
       <c r="E76" t="s">
         <v>331</v>
@@ -17591,16 +17582,16 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>1845</v>
+        <v>1847</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C77" t="s">
         <v>464</v>
       </c>
       <c r="D77" s="14">
-        <v>1961800</v>
+        <v>911700</v>
       </c>
       <c r="E77" t="s">
         <v>331</v>
@@ -17608,16 +17599,16 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>1846</v>
+        <v>1848</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C78" t="s">
         <v>465</v>
       </c>
       <c r="D78" s="14">
-        <v>2709500</v>
+        <v>1220200</v>
       </c>
       <c r="E78" t="s">
         <v>331</v>
@@ -17625,16 +17616,16 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>1847</v>
+        <v>1849</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C79" t="s">
         <v>466</v>
       </c>
       <c r="D79" s="14">
-        <v>911700</v>
+        <v>1056900</v>
       </c>
       <c r="E79" t="s">
         <v>331</v>
@@ -17642,16 +17633,16 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>1848</v>
+        <v>1850</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C80" t="s">
         <v>467</v>
       </c>
       <c r="D80" s="14">
-        <v>1220200</v>
+        <v>1378900</v>
       </c>
       <c r="E80" t="s">
         <v>331</v>
@@ -17659,16 +17650,16 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>1849</v>
+        <v>1851</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C81" t="s">
         <v>468</v>
       </c>
       <c r="D81" s="14">
-        <v>1056900</v>
+        <v>1728600</v>
       </c>
       <c r="E81" t="s">
         <v>331</v>
@@ -17676,16 +17667,16 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>1850</v>
+        <v>1852</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C82" t="s">
         <v>469</v>
       </c>
       <c r="D82" s="14">
-        <v>1378900</v>
+        <v>691700</v>
       </c>
       <c r="E82" t="s">
         <v>331</v>
@@ -17693,16 +17684,16 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>1851</v>
+        <v>1853</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C83" t="s">
         <v>470</v>
       </c>
       <c r="D83" s="14">
-        <v>1728600</v>
+        <v>766600</v>
       </c>
       <c r="E83" t="s">
         <v>331</v>
@@ -17710,16 +17701,16 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>1852</v>
+        <v>1854</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="C84" t="s">
         <v>471</v>
       </c>
       <c r="D84" s="14">
-        <v>691700</v>
+        <v>2825900</v>
       </c>
       <c r="E84" t="s">
         <v>331</v>
@@ -17727,16 +17718,16 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>1853</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>141</v>
+        <v>1855</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>145</v>
       </c>
       <c r="C85" t="s">
         <v>472</v>
       </c>
       <c r="D85" s="14">
-        <v>766600</v>
+        <v>3504100</v>
       </c>
       <c r="E85" t="s">
         <v>331</v>
@@ -17744,16 +17735,16 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>1854</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>144</v>
+        <v>1856</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>146</v>
       </c>
       <c r="C86" t="s">
         <v>473</v>
       </c>
       <c r="D86" s="14">
-        <v>2825900</v>
+        <v>1798500</v>
       </c>
       <c r="E86" t="s">
         <v>331</v>
@@ -17761,16 +17752,16 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>1855</v>
-      </c>
-      <c r="B87" s="7" t="s">
-        <v>145</v>
+        <v>1857</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>147</v>
       </c>
       <c r="C87" t="s">
         <v>474</v>
       </c>
       <c r="D87" s="14">
-        <v>3504100</v>
+        <v>2382500</v>
       </c>
       <c r="E87" t="s">
         <v>331</v>
@@ -17778,16 +17769,16 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>1856</v>
+        <v>1858</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C88" t="s">
         <v>475</v>
       </c>
       <c r="D88" s="14">
-        <v>1798500</v>
+        <v>1495000</v>
       </c>
       <c r="E88" t="s">
         <v>331</v>
@@ -17795,16 +17786,16 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>1857</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>147</v>
+        <v>1859</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>149</v>
       </c>
       <c r="C89" t="s">
         <v>476</v>
       </c>
       <c r="D89" s="14">
-        <v>2382500</v>
+        <v>1775100</v>
       </c>
       <c r="E89" t="s">
         <v>331</v>
@@ -17812,16 +17803,16 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>1858</v>
+        <v>1860</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C90" t="s">
         <v>477</v>
       </c>
       <c r="D90" s="14">
-        <v>1495000</v>
+        <v>1961800</v>
       </c>
       <c r="E90" t="s">
         <v>331</v>
@@ -17829,16 +17820,16 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>1859</v>
+        <v>1861</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C91" t="s">
         <v>478</v>
       </c>
       <c r="D91" s="14">
-        <v>1775100</v>
+        <v>2709500</v>
       </c>
       <c r="E91" t="s">
         <v>331</v>
@@ -17846,16 +17837,16 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>1860</v>
+        <v>1862</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C92" t="s">
         <v>479</v>
       </c>
       <c r="D92" s="14">
-        <v>1961800</v>
+        <v>911700</v>
       </c>
       <c r="E92" t="s">
         <v>331</v>
@@ -17863,16 +17854,16 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>1861</v>
+        <v>1863</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C93" t="s">
         <v>480</v>
       </c>
       <c r="D93" s="14">
-        <v>2709500</v>
+        <v>1220200</v>
       </c>
       <c r="E93" t="s">
         <v>331</v>
@@ -17880,16 +17871,16 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>1862</v>
+        <v>1864</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C94" t="s">
         <v>481</v>
       </c>
       <c r="D94" s="14">
-        <v>911700</v>
+        <v>1056900</v>
       </c>
       <c r="E94" t="s">
         <v>331</v>
@@ -17897,16 +17888,16 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>1863</v>
+        <v>1865</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C95" t="s">
         <v>482</v>
       </c>
       <c r="D95" s="14">
-        <v>1220200</v>
+        <v>1378900</v>
       </c>
       <c r="E95" t="s">
         <v>331</v>
@@ -17914,16 +17905,16 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>1864</v>
+        <v>1866</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C96" t="s">
         <v>483</v>
       </c>
       <c r="D96" s="14">
-        <v>1056900</v>
+        <v>1728600</v>
       </c>
       <c r="E96" t="s">
         <v>331</v>
@@ -17931,16 +17922,16 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>1865</v>
-      </c>
-      <c r="B97" s="7" t="s">
-        <v>155</v>
+        <v>1867</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>157</v>
       </c>
       <c r="C97" t="s">
         <v>484</v>
       </c>
       <c r="D97" s="14">
-        <v>1378900</v>
+        <v>691700</v>
       </c>
       <c r="E97" t="s">
         <v>331</v>
@@ -17948,16 +17939,16 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>1866</v>
+        <v>1868</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C98" t="s">
         <v>485</v>
       </c>
       <c r="D98" s="14">
-        <v>1728600</v>
+        <v>766600</v>
       </c>
       <c r="E98" t="s">
         <v>331</v>
@@ -17965,16 +17956,16 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>1867</v>
+        <v>1869</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C99" t="s">
         <v>486</v>
       </c>
       <c r="D99" s="14">
-        <v>691700</v>
+        <v>1515800</v>
       </c>
       <c r="E99" t="s">
         <v>331</v>
@@ -17982,16 +17973,16 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>1868</v>
-      </c>
-      <c r="B100" s="7" t="s">
-        <v>158</v>
+        <v>1870</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>162</v>
       </c>
       <c r="C100" t="s">
         <v>487</v>
       </c>
       <c r="D100" s="14">
-        <v>766600</v>
+        <v>1633700</v>
       </c>
       <c r="E100" t="s">
         <v>331</v>
@@ -17999,16 +17990,16 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>1869</v>
+        <v>1871</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C101" t="s">
         <v>488</v>
       </c>
       <c r="D101" s="14">
-        <v>1515800</v>
+        <v>2215800</v>
       </c>
       <c r="E101" t="s">
         <v>331</v>
@@ -18016,16 +18007,16 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>1870</v>
+        <v>1872</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C102" t="s">
         <v>489</v>
       </c>
       <c r="D102" s="14">
-        <v>1633700</v>
+        <v>1951200</v>
       </c>
       <c r="E102" t="s">
         <v>331</v>
@@ -18033,16 +18024,16 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>1871</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>164</v>
+        <v>1873</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>168</v>
       </c>
       <c r="C103" t="s">
         <v>490</v>
       </c>
       <c r="D103" s="14">
-        <v>2215800</v>
+        <v>1909700</v>
       </c>
       <c r="E103" t="s">
         <v>331</v>
@@ -18050,16 +18041,16 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>1872</v>
+        <v>1874</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C104" t="s">
         <v>491</v>
       </c>
       <c r="D104" s="14">
-        <v>1951200</v>
+        <v>1873400</v>
       </c>
       <c r="E104" t="s">
         <v>331</v>
@@ -18067,16 +18058,16 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>1873</v>
-      </c>
-      <c r="B105" s="7" t="s">
-        <v>168</v>
+        <v>1875</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>171</v>
       </c>
       <c r="C105" t="s">
         <v>492</v>
       </c>
       <c r="D105" s="14">
-        <v>1909700</v>
+        <v>1268900</v>
       </c>
       <c r="E105" t="s">
         <v>331</v>
@@ -18084,16 +18075,16 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>1874</v>
+        <v>1876</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C106" t="s">
         <v>493</v>
       </c>
       <c r="D106" s="14">
-        <v>1873400</v>
+        <v>956300</v>
       </c>
       <c r="E106" t="s">
         <v>331</v>
@@ -18101,16 +18092,16 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>1875</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>171</v>
+        <v>1877</v>
+      </c>
+      <c r="B107" s="7" t="s">
+        <v>175</v>
       </c>
       <c r="C107" t="s">
         <v>494</v>
       </c>
       <c r="D107" s="14">
-        <v>1268900</v>
+        <v>336400</v>
       </c>
       <c r="E107" t="s">
         <v>331</v>
@@ -18118,16 +18109,16 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>1876</v>
+        <v>1878</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C108" t="s">
-        <v>495</v>
+        <v>176</v>
+      </c>
+      <c r="C108" s="12" t="s">
+        <v>562</v>
       </c>
       <c r="D108" s="14">
-        <v>956300</v>
+        <v>3805700</v>
       </c>
       <c r="E108" t="s">
         <v>331</v>
@@ -18135,16 +18126,16 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>1877</v>
-      </c>
-      <c r="B109" s="7" t="s">
-        <v>175</v>
+        <v>1879</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>178</v>
       </c>
       <c r="C109" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D109" s="14">
-        <v>336400</v>
+        <v>3834400</v>
       </c>
       <c r="E109" t="s">
         <v>331</v>
@@ -18152,16 +18143,16 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>1878</v>
+        <v>1880</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C110" s="12" t="s">
-        <v>565</v>
+        <v>179</v>
+      </c>
+      <c r="C110" t="s">
+        <v>496</v>
       </c>
       <c r="D110" s="14">
-        <v>3805700</v>
+        <v>2494800</v>
       </c>
       <c r="E110" t="s">
         <v>331</v>
@@ -18169,16 +18160,16 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>1879</v>
+        <v>1881</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C111" t="s">
         <v>497</v>
       </c>
       <c r="D111" s="14">
-        <v>3834400</v>
+        <v>5329800</v>
       </c>
       <c r="E111" t="s">
         <v>331</v>
@@ -18186,16 +18177,16 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>1880</v>
+        <v>1882</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C112" t="s">
         <v>498</v>
       </c>
       <c r="D112" s="14">
-        <v>2494800</v>
+        <v>4617600</v>
       </c>
       <c r="E112" t="s">
         <v>331</v>
@@ -18203,16 +18194,16 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>1881</v>
+        <v>1883</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C113" t="s">
         <v>499</v>
       </c>
       <c r="D113" s="14">
-        <v>5329800</v>
+        <v>4613100</v>
       </c>
       <c r="E113" t="s">
         <v>331</v>
@@ -18220,33 +18211,33 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>1882</v>
+        <v>1884</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>183</v>
+        <v>388</v>
       </c>
       <c r="C114" t="s">
         <v>500</v>
       </c>
       <c r="D114" s="14">
-        <v>4617600</v>
+        <v>8482300</v>
       </c>
       <c r="E114" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>1883</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>185</v>
+        <v>1887</v>
+      </c>
+      <c r="B115" s="7" t="s">
+        <v>193</v>
       </c>
       <c r="C115" t="s">
         <v>501</v>
       </c>
       <c r="D115" s="14">
-        <v>4613100</v>
+        <v>1555800</v>
       </c>
       <c r="E115" t="s">
         <v>331</v>
@@ -18254,33 +18245,33 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>1884</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>388</v>
+        <v>1888</v>
+      </c>
+      <c r="B116" s="7" t="s">
+        <v>195</v>
       </c>
       <c r="C116" t="s">
         <v>502</v>
       </c>
       <c r="D116" s="14">
-        <v>8482300</v>
+        <v>2317900</v>
       </c>
       <c r="E116" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>1887</v>
-      </c>
-      <c r="B117" s="7" t="s">
-        <v>193</v>
+        <v>1890</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>199</v>
       </c>
       <c r="C117" t="s">
         <v>503</v>
       </c>
       <c r="D117" s="14">
-        <v>1555800</v>
+        <v>603300</v>
       </c>
       <c r="E117" t="s">
         <v>331</v>
@@ -18288,16 +18279,16 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>1888</v>
+        <v>1891</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="C118" t="s">
         <v>504</v>
       </c>
       <c r="D118" s="14">
-        <v>2317900</v>
+        <v>442300</v>
       </c>
       <c r="E118" t="s">
         <v>331</v>
@@ -18305,16 +18296,16 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>1889</v>
+        <v>1892</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>373</v>
+        <v>202</v>
       </c>
       <c r="C119" t="s">
         <v>505</v>
       </c>
       <c r="D119" s="14">
-        <v>3175200</v>
+        <v>435500</v>
       </c>
       <c r="E119" t="s">
         <v>331</v>
@@ -18322,16 +18313,16 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>1890</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>199</v>
+        <v>1893</v>
+      </c>
+      <c r="B120" s="7" t="s">
+        <v>204</v>
       </c>
       <c r="C120" t="s">
         <v>506</v>
       </c>
       <c r="D120" s="14">
-        <v>603300</v>
+        <v>499000</v>
       </c>
       <c r="E120" t="s">
         <v>331</v>
@@ -18339,16 +18330,16 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>1891</v>
-      </c>
-      <c r="B121" s="7" t="s">
-        <v>201</v>
+        <v>1894</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>207</v>
       </c>
       <c r="C121" t="s">
         <v>507</v>
       </c>
       <c r="D121" s="14">
-        <v>442300</v>
+        <v>589700</v>
       </c>
       <c r="E121" t="s">
         <v>331</v>
@@ -18356,16 +18347,16 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>1892</v>
-      </c>
-      <c r="B122" s="7" t="s">
-        <v>202</v>
+        <v>1895</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>209</v>
       </c>
       <c r="C122" t="s">
         <v>508</v>
       </c>
       <c r="D122" s="14">
-        <v>435500</v>
+        <v>499000</v>
       </c>
       <c r="E122" t="s">
         <v>331</v>
@@ -18373,16 +18364,16 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>1893</v>
-      </c>
-      <c r="B123" s="7" t="s">
-        <v>204</v>
+        <v>1896</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>211</v>
       </c>
       <c r="C123" t="s">
         <v>509</v>
       </c>
       <c r="D123" s="14">
-        <v>499000</v>
+        <v>1519600</v>
       </c>
       <c r="E123" t="s">
         <v>331</v>
@@ -18390,16 +18381,16 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>1894</v>
+        <v>1897</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="C124" t="s">
         <v>510</v>
       </c>
       <c r="D124" s="14">
-        <v>589700</v>
+        <v>952600</v>
       </c>
       <c r="E124" t="s">
         <v>331</v>
@@ -18407,16 +18398,16 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>1895</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>209</v>
+        <v>1898</v>
+      </c>
+      <c r="B125" s="7" t="s">
+        <v>213</v>
       </c>
       <c r="C125" t="s">
         <v>511</v>
       </c>
       <c r="D125" s="14">
-        <v>499000</v>
+        <v>1038700</v>
       </c>
       <c r="E125" t="s">
         <v>331</v>
@@ -18424,16 +18415,16 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>1896</v>
+        <v>1899</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C126" t="s">
         <v>512</v>
       </c>
       <c r="D126" s="14">
-        <v>1519600</v>
+        <v>839200</v>
       </c>
       <c r="E126" t="s">
         <v>331</v>
@@ -18441,16 +18432,16 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>1897</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>212</v>
+        <v>1900</v>
+      </c>
+      <c r="B127" s="7" t="s">
+        <v>215</v>
       </c>
       <c r="C127" t="s">
         <v>513</v>
       </c>
       <c r="D127" s="14">
-        <v>952600</v>
+        <v>961600</v>
       </c>
       <c r="E127" t="s">
         <v>331</v>
@@ -18458,16 +18449,16 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>1898</v>
+        <v>1901</v>
       </c>
       <c r="B128" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C128" t="s">
         <v>514</v>
       </c>
       <c r="D128" s="14">
-        <v>1038700</v>
+        <v>1723700</v>
       </c>
       <c r="E128" t="s">
         <v>331</v>
@@ -18475,16 +18466,16 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>1899</v>
+        <v>1902</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C129" t="s">
         <v>515</v>
       </c>
       <c r="D129" s="14">
-        <v>839200</v>
+        <v>2206800</v>
       </c>
       <c r="E129" t="s">
         <v>331</v>
@@ -18492,16 +18483,16 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>1900</v>
-      </c>
-      <c r="B130" s="7" t="s">
-        <v>215</v>
+        <v>1903</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>221</v>
       </c>
       <c r="C130" t="s">
         <v>516</v>
       </c>
       <c r="D130" s="14">
-        <v>961600</v>
+        <v>2544700</v>
       </c>
       <c r="E130" t="s">
         <v>331</v>
@@ -18509,16 +18500,16 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>1901</v>
+        <v>1904</v>
       </c>
       <c r="B131" s="7" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="C131" t="s">
         <v>517</v>
       </c>
       <c r="D131" s="14">
-        <v>1723700</v>
+        <v>2857700</v>
       </c>
       <c r="E131" t="s">
         <v>331</v>
@@ -18526,16 +18517,16 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>1902</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>219</v>
+        <v>1905</v>
+      </c>
+      <c r="B132" s="7" t="s">
+        <v>225</v>
       </c>
       <c r="C132" t="s">
         <v>518</v>
       </c>
       <c r="D132" s="14">
-        <v>2206800</v>
+        <v>2794200</v>
       </c>
       <c r="E132" t="s">
         <v>331</v>
@@ -18543,16 +18534,16 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>1903</v>
+        <v>1906</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="C133" t="s">
         <v>519</v>
       </c>
       <c r="D133" s="14">
-        <v>2544700</v>
+        <v>2236200</v>
       </c>
       <c r="E133" t="s">
         <v>331</v>
@@ -18560,16 +18551,16 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>1904</v>
-      </c>
-      <c r="B134" s="7" t="s">
-        <v>223</v>
+        <v>1907</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>228</v>
       </c>
       <c r="C134" t="s">
         <v>520</v>
       </c>
       <c r="D134" s="14">
-        <v>2857700</v>
+        <v>244900</v>
       </c>
       <c r="E134" t="s">
         <v>331</v>
@@ -18577,16 +18568,16 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>1905</v>
-      </c>
-      <c r="B135" s="7" t="s">
-        <v>225</v>
+        <v>1908</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>230</v>
       </c>
       <c r="C135" t="s">
         <v>521</v>
       </c>
       <c r="D135" s="14">
-        <v>2794200</v>
+        <v>208700</v>
       </c>
       <c r="E135" t="s">
         <v>331</v>
@@ -18594,16 +18585,16 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>1906</v>
+        <v>1909</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C136" t="s">
         <v>522</v>
       </c>
       <c r="D136" s="14">
-        <v>2236200</v>
+        <v>276700</v>
       </c>
       <c r="E136" t="s">
         <v>331</v>
@@ -18611,16 +18602,16 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>1907</v>
+        <v>1910</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="C137" t="s">
         <v>523</v>
       </c>
       <c r="D137" s="14">
-        <v>244900</v>
+        <v>412800</v>
       </c>
       <c r="E137" t="s">
         <v>331</v>
@@ -18628,16 +18619,16 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>1908</v>
+        <v>1911</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="C138" t="s">
         <v>524</v>
       </c>
       <c r="D138" s="14">
-        <v>208700</v>
+        <v>557900</v>
       </c>
       <c r="E138" t="s">
         <v>331</v>
@@ -18645,16 +18636,16 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>1909</v>
+        <v>1912</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="C139" t="s">
         <v>525</v>
       </c>
       <c r="D139" s="14">
-        <v>276700</v>
+        <v>537500</v>
       </c>
       <c r="E139" t="s">
         <v>331</v>
@@ -18662,16 +18653,16 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>1910</v>
-      </c>
-      <c r="B140" s="1" t="s">
-        <v>234</v>
+        <v>1913</v>
+      </c>
+      <c r="B140" s="7" t="s">
+        <v>241</v>
       </c>
       <c r="C140" t="s">
         <v>526</v>
       </c>
       <c r="D140" s="14">
-        <v>412800</v>
+        <v>3805700</v>
       </c>
       <c r="E140" t="s">
         <v>331</v>
@@ -18679,16 +18670,16 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>1911</v>
+        <v>1914</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="C141" t="s">
         <v>527</v>
       </c>
       <c r="D141" s="14">
-        <v>557900</v>
+        <v>2948400</v>
       </c>
       <c r="E141" t="s">
         <v>331</v>
@@ -18696,16 +18687,16 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>1912</v>
+        <v>1915</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="C142" t="s">
         <v>528</v>
       </c>
       <c r="D142" s="14">
-        <v>537500</v>
+        <v>1388000</v>
       </c>
       <c r="E142" t="s">
         <v>331</v>
@@ -18713,16 +18704,16 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>1913</v>
-      </c>
-      <c r="B143" s="7" t="s">
-        <v>241</v>
+        <v>1916</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="C143" t="s">
         <v>529</v>
       </c>
       <c r="D143" s="14">
-        <v>3805700</v>
+        <v>458100</v>
       </c>
       <c r="E143" t="s">
         <v>331</v>
@@ -18730,16 +18721,16 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>1914</v>
+        <v>1917</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="C144" t="s">
         <v>530</v>
       </c>
       <c r="D144" s="14">
-        <v>2948400</v>
+        <v>335700</v>
       </c>
       <c r="E144" t="s">
         <v>331</v>
@@ -18747,16 +18738,16 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>1915</v>
+        <v>1918</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="C145" t="s">
         <v>531</v>
       </c>
       <c r="D145" s="14">
-        <v>1388000</v>
+        <v>669100</v>
       </c>
       <c r="E145" t="s">
         <v>331</v>
@@ -18764,16 +18755,16 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>1916</v>
+        <v>1930</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>247</v>
+        <v>270</v>
       </c>
       <c r="C146" t="s">
         <v>532</v>
       </c>
       <c r="D146" s="14">
-        <v>458100</v>
+        <v>739400</v>
       </c>
       <c r="E146" t="s">
         <v>331</v>
@@ -18781,16 +18772,16 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>1917</v>
+        <v>1932</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>249</v>
+        <v>274</v>
       </c>
       <c r="C147" t="s">
         <v>533</v>
       </c>
       <c r="D147" s="14">
-        <v>335700</v>
+        <v>7557000</v>
       </c>
       <c r="E147" t="s">
         <v>331</v>
@@ -18798,16 +18789,16 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>1918</v>
+        <v>1933</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>251</v>
+        <v>276</v>
       </c>
       <c r="C148" t="s">
         <v>534</v>
       </c>
       <c r="D148" s="14">
-        <v>669100</v>
+        <v>417300</v>
       </c>
       <c r="E148" t="s">
         <v>331</v>
@@ -18815,16 +18806,16 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>1930</v>
+        <v>1934</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="C149" t="s">
         <v>535</v>
       </c>
       <c r="D149" s="14">
-        <v>739400</v>
+        <v>1197500</v>
       </c>
       <c r="E149" t="s">
         <v>331</v>
@@ -18832,16 +18823,16 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>1932</v>
+        <v>1935</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="C150" t="s">
         <v>536</v>
       </c>
       <c r="D150" s="14">
-        <v>7557000</v>
+        <v>1224700</v>
       </c>
       <c r="E150" t="s">
         <v>331</v>
@@ -18849,16 +18840,16 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>1933</v>
-      </c>
-      <c r="B151" s="1" t="s">
-        <v>276</v>
+        <v>1936</v>
+      </c>
+      <c r="B151" s="7" t="s">
+        <v>282</v>
       </c>
       <c r="C151" t="s">
         <v>537</v>
       </c>
       <c r="D151" s="14">
-        <v>417300</v>
+        <v>2540200</v>
       </c>
       <c r="E151" t="s">
         <v>331</v>
@@ -18866,16 +18857,16 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>1934</v>
-      </c>
-      <c r="B152" s="1" t="s">
-        <v>278</v>
+        <v>1937</v>
+      </c>
+      <c r="B152" s="7" t="s">
+        <v>283</v>
       </c>
       <c r="C152" t="s">
         <v>538</v>
       </c>
       <c r="D152" s="14">
-        <v>1197500</v>
+        <v>2540200</v>
       </c>
       <c r="E152" t="s">
         <v>331</v>
@@ -18883,16 +18874,16 @@
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>1935</v>
+        <v>1938</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="C153" t="s">
         <v>539</v>
       </c>
       <c r="D153" s="14">
-        <v>1224700</v>
+        <v>122500</v>
       </c>
       <c r="E153" t="s">
         <v>331</v>
@@ -18900,16 +18891,16 @@
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>1936</v>
-      </c>
-      <c r="B154" s="7" t="s">
-        <v>282</v>
+        <v>1939</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>286</v>
       </c>
       <c r="C154" t="s">
         <v>540</v>
       </c>
       <c r="D154" s="14">
-        <v>2540200</v>
+        <v>2676200</v>
       </c>
       <c r="E154" t="s">
         <v>331</v>
@@ -18917,16 +18908,16 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>1937</v>
-      </c>
-      <c r="B155" s="7" t="s">
-        <v>283</v>
+        <v>1940</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>288</v>
       </c>
       <c r="C155" t="s">
         <v>541</v>
       </c>
       <c r="D155" s="14">
-        <v>2540200</v>
+        <v>2712500</v>
       </c>
       <c r="E155" t="s">
         <v>331</v>
@@ -18934,16 +18925,16 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>1938</v>
+        <v>1941</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="C156" t="s">
         <v>542</v>
       </c>
       <c r="D156" s="14">
-        <v>122500</v>
+        <v>2041200</v>
       </c>
       <c r="E156" t="s">
         <v>331</v>
@@ -18951,16 +18942,16 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>1939</v>
+        <v>1942</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="C157" t="s">
         <v>543</v>
       </c>
       <c r="D157" s="14">
-        <v>2676200</v>
+        <v>1360800</v>
       </c>
       <c r="E157" t="s">
         <v>331</v>
@@ -18968,16 +18959,16 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>1940</v>
+        <v>1943</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="C158" t="s">
         <v>544</v>
       </c>
       <c r="D158" s="14">
-        <v>2712500</v>
+        <v>1168000</v>
       </c>
       <c r="E158" t="s">
         <v>331</v>
@@ -18985,16 +18976,16 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>1941</v>
-      </c>
-      <c r="B159" s="1" t="s">
-        <v>290</v>
+        <v>1944</v>
+      </c>
+      <c r="B159" s="7" t="s">
+        <v>561</v>
       </c>
       <c r="C159" t="s">
         <v>545</v>
       </c>
       <c r="D159" s="14">
-        <v>2041200</v>
+        <v>2335200</v>
       </c>
       <c r="E159" t="s">
         <v>331</v>
@@ -19002,16 +18993,16 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>1942</v>
+        <v>1945</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="C160" t="s">
         <v>546</v>
       </c>
       <c r="D160" s="14">
-        <v>1360800</v>
+        <v>1432200</v>
       </c>
       <c r="E160" t="s">
         <v>331</v>
@@ -19019,16 +19010,16 @@
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>1943</v>
+        <v>1946</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="C161" t="s">
         <v>547</v>
       </c>
       <c r="D161" s="14">
-        <v>1168000</v>
+        <v>1067600</v>
       </c>
       <c r="E161" t="s">
         <v>331</v>
@@ -19036,16 +19027,16 @@
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>1944</v>
+        <v>1947</v>
       </c>
       <c r="B162" s="7" t="s">
-        <v>564</v>
+        <v>303</v>
       </c>
       <c r="C162" t="s">
         <v>548</v>
       </c>
       <c r="D162" s="14">
-        <v>2335200</v>
+        <v>966000</v>
       </c>
       <c r="E162" t="s">
         <v>331</v>
@@ -19053,16 +19044,16 @@
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>1945</v>
+        <v>1948</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="C163" t="s">
         <v>549</v>
       </c>
       <c r="D163" s="14">
-        <v>1432200</v>
+        <v>846700</v>
       </c>
       <c r="E163" t="s">
         <v>331</v>
@@ -19070,16 +19061,16 @@
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>1946</v>
+        <v>1949</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="C164" t="s">
         <v>550</v>
       </c>
       <c r="D164" s="14">
-        <v>1067600</v>
+        <v>926100</v>
       </c>
       <c r="E164" t="s">
         <v>331</v>
@@ -19087,16 +19078,16 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>1947</v>
-      </c>
-      <c r="B165" s="7" t="s">
-        <v>303</v>
+        <v>1950</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>309</v>
       </c>
       <c r="C165" t="s">
         <v>551</v>
       </c>
       <c r="D165" s="14">
-        <v>966000</v>
+        <v>915600</v>
       </c>
       <c r="E165" t="s">
         <v>331</v>
@@ -19104,16 +19095,16 @@
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>1948</v>
+        <v>1951</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="C166" t="s">
         <v>552</v>
       </c>
       <c r="D166" s="14">
-        <v>846700</v>
+        <v>292300</v>
       </c>
       <c r="E166" t="s">
         <v>331</v>
@@ -19121,16 +19112,16 @@
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>1949</v>
+        <v>1952</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="C167" t="s">
         <v>553</v>
       </c>
       <c r="D167" s="14">
-        <v>926100</v>
+        <v>2335200</v>
       </c>
       <c r="E167" t="s">
         <v>331</v>
@@ -19138,16 +19129,16 @@
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>1950</v>
+        <v>1953</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="C168" t="s">
         <v>554</v>
       </c>
       <c r="D168" s="14">
-        <v>915600</v>
+        <v>1432200</v>
       </c>
       <c r="E168" t="s">
         <v>331</v>
@@ -19155,16 +19146,16 @@
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>1951</v>
+        <v>1954</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="C169" t="s">
         <v>555</v>
       </c>
       <c r="D169" s="14">
-        <v>292300</v>
+        <v>1067600</v>
       </c>
       <c r="E169" t="s">
         <v>331</v>
@@ -19172,16 +19163,16 @@
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>1952</v>
+        <v>1955</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C170" t="s">
         <v>556</v>
       </c>
       <c r="D170" s="14">
-        <v>2335200</v>
+        <v>966000</v>
       </c>
       <c r="E170" t="s">
         <v>331</v>
@@ -19189,16 +19180,16 @@
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>1953</v>
+        <v>1956</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="C171" t="s">
         <v>557</v>
       </c>
       <c r="D171" s="14">
-        <v>1432200</v>
+        <v>846700</v>
       </c>
       <c r="E171" t="s">
         <v>331</v>
@@ -19206,16 +19197,16 @@
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>1954</v>
+        <v>1957</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="C172" t="s">
         <v>558</v>
       </c>
       <c r="D172" s="14">
-        <v>1067600</v>
+        <v>926100</v>
       </c>
       <c r="E172" t="s">
         <v>331</v>
@@ -19223,16 +19214,16 @@
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>1955</v>
+        <v>1958</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C173" t="s">
         <v>559</v>
       </c>
       <c r="D173" s="14">
-        <v>966000</v>
+        <v>915600</v>
       </c>
       <c r="E173" t="s">
         <v>331</v>
@@ -19240,69 +19231,18 @@
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>1956</v>
+        <v>1959</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="C174" t="s">
         <v>560</v>
       </c>
       <c r="D174" s="14">
-        <v>846700</v>
+        <v>292300</v>
       </c>
       <c r="E174" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A175">
-        <v>1957</v>
-      </c>
-      <c r="B175" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="C175" t="s">
-        <v>561</v>
-      </c>
-      <c r="D175" s="14">
-        <v>926100</v>
-      </c>
-      <c r="E175" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A176">
-        <v>1958</v>
-      </c>
-      <c r="B176" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="C176" t="s">
-        <v>562</v>
-      </c>
-      <c r="D176" s="14">
-        <v>915600</v>
-      </c>
-      <c r="E176" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A177">
-        <v>1959</v>
-      </c>
-      <c r="B177" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="C177" t="s">
-        <v>563</v>
-      </c>
-      <c r="D177" s="14">
-        <v>292300</v>
-      </c>
-      <c r="E177" t="s">
         <v>331</v>
       </c>
     </row>
@@ -19313,10 +19253,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U177"/>
+  <dimension ref="A1:U174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="K60" sqref="K60"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:XFD32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19402,7 +19342,7 @@
         <v>370</v>
       </c>
       <c r="D2" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="F2" t="s">
         <v>4</v>
@@ -19414,7 +19354,7 @@
         <v>385</v>
       </c>
       <c r="K2" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="S2">
         <v>1</v>
@@ -19431,7 +19371,7 @@
         <v>371</v>
       </c>
       <c r="D3" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="F3" t="s">
         <v>6</v>
@@ -19443,7 +19383,7 @@
         <v>385</v>
       </c>
       <c r="K3" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="S3">
         <v>1</v>
@@ -19460,7 +19400,7 @@
         <v>372</v>
       </c>
       <c r="D4" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="F4" t="s">
         <v>8</v>
@@ -19472,7 +19412,7 @@
         <v>385</v>
       </c>
       <c r="K4" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="S4">
         <v>1</v>
@@ -19489,7 +19429,7 @@
         <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="F5" t="s">
         <v>10</v>
@@ -19501,7 +19441,7 @@
         <v>385</v>
       </c>
       <c r="K5" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="S5">
         <v>1</v>
@@ -19518,7 +19458,7 @@
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="F6" t="s">
         <v>12</v>
@@ -19530,7 +19470,7 @@
         <v>385</v>
       </c>
       <c r="K6" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="S6">
         <v>1</v>
@@ -19547,7 +19487,7 @@
         <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="F7" t="s">
         <v>14</v>
@@ -19559,7 +19499,7 @@
         <v>385</v>
       </c>
       <c r="K7" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="S7">
         <v>1</v>
@@ -19576,7 +19516,7 @@
         <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="F8" t="s">
         <v>14</v>
@@ -19588,7 +19528,7 @@
         <v>385</v>
       </c>
       <c r="K8" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="S8">
         <v>1</v>
@@ -19605,7 +19545,7 @@
         <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="F9" t="s">
         <v>17</v>
@@ -19617,7 +19557,7 @@
         <v>385</v>
       </c>
       <c r="K9" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="S9">
         <v>1</v>
@@ -19634,7 +19574,7 @@
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="F10" t="s">
         <v>17</v>
@@ -19646,7 +19586,7 @@
         <v>385</v>
       </c>
       <c r="K10" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="S10">
         <v>1</v>
@@ -19663,7 +19603,7 @@
         <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="F11" t="s">
         <v>20</v>
@@ -19675,7 +19615,7 @@
         <v>385</v>
       </c>
       <c r="K11" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="S11">
         <v>1</v>
@@ -19692,7 +19632,7 @@
         <v>21</v>
       </c>
       <c r="D12" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="F12" t="s">
         <v>20</v>
@@ -19704,7 +19644,7 @@
         <v>385</v>
       </c>
       <c r="K12" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="S12">
         <v>1</v>
@@ -19721,7 +19661,7 @@
         <v>22</v>
       </c>
       <c r="D13" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="F13" t="s">
         <v>23</v>
@@ -19733,7 +19673,7 @@
         <v>385</v>
       </c>
       <c r="K13" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="S13">
         <v>1</v>
@@ -19750,7 +19690,7 @@
         <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="F14" t="s">
         <v>23</v>
@@ -19762,7 +19702,7 @@
         <v>385</v>
       </c>
       <c r="K14" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="S14">
         <v>1</v>
@@ -19775,11 +19715,11 @@
       <c r="B15">
         <v>1780</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="F15" t="s">
         <v>26</v>
@@ -19791,7 +19731,7 @@
         <v>385</v>
       </c>
       <c r="K15" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="S15">
         <v>1</v>
@@ -19808,7 +19748,7 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="F16" t="s">
         <v>26</v>
@@ -19820,7 +19760,7 @@
         <v>385</v>
       </c>
       <c r="K16" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="S16">
         <v>1</v>
@@ -19837,7 +19777,7 @@
         <v>28</v>
       </c>
       <c r="D17" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="F17" t="s">
         <v>29</v>
@@ -19849,7 +19789,7 @@
         <v>385</v>
       </c>
       <c r="K17" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="S17">
         <v>1</v>
@@ -19866,7 +19806,7 @@
         <v>30</v>
       </c>
       <c r="D18" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="F18" t="s">
         <v>29</v>
@@ -19878,7 +19818,7 @@
         <v>385</v>
       </c>
       <c r="K18" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="S18">
         <v>1</v>
@@ -19895,7 +19835,7 @@
         <v>31</v>
       </c>
       <c r="D19" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="F19" t="s">
         <v>32</v>
@@ -19907,7 +19847,7 @@
         <v>385</v>
       </c>
       <c r="K19" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="S19">
         <v>1</v>
@@ -19924,7 +19864,7 @@
         <v>33</v>
       </c>
       <c r="D20" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="F20" t="s">
         <v>34</v>
@@ -19936,7 +19876,7 @@
         <v>385</v>
       </c>
       <c r="K20" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="S20">
         <v>1</v>
@@ -19953,7 +19893,7 @@
         <v>35</v>
       </c>
       <c r="D21" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="F21" t="s">
         <v>34</v>
@@ -19965,7 +19905,7 @@
         <v>385</v>
       </c>
       <c r="K21" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="S21">
         <v>1</v>
@@ -19982,7 +19922,7 @@
         <v>36</v>
       </c>
       <c r="D22" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="F22" t="s">
         <v>37</v>
@@ -19994,7 +19934,7 @@
         <v>385</v>
       </c>
       <c r="K22" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="S22">
         <v>1</v>
@@ -20011,7 +19951,7 @@
         <v>38</v>
       </c>
       <c r="D23" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="F23" t="s">
         <v>37</v>
@@ -20023,7 +19963,7 @@
         <v>385</v>
       </c>
       <c r="K23" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="S23">
         <v>1</v>
@@ -20040,7 +19980,7 @@
         <v>39</v>
       </c>
       <c r="D24" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="F24" t="s">
         <v>34</v>
@@ -20052,7 +19992,7 @@
         <v>385</v>
       </c>
       <c r="K24" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="S24">
         <v>1</v>
@@ -20069,7 +20009,7 @@
         <v>325</v>
       </c>
       <c r="D25" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="F25" t="s">
         <v>40</v>
@@ -20081,7 +20021,7 @@
         <v>385</v>
       </c>
       <c r="K25" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="S25">
         <v>1</v>
@@ -20098,7 +20038,7 @@
         <v>41</v>
       </c>
       <c r="D26" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="F26" t="s">
         <v>40</v>
@@ -20110,7 +20050,7 @@
         <v>385</v>
       </c>
       <c r="K26" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="S26">
         <v>1</v>
@@ -20127,7 +20067,7 @@
         <v>42</v>
       </c>
       <c r="D27" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="F27" t="s">
         <v>43</v>
@@ -20139,7 +20079,7 @@
         <v>385</v>
       </c>
       <c r="K27" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="S27">
         <v>1</v>
@@ -20156,7 +20096,7 @@
         <v>44</v>
       </c>
       <c r="D28" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="F28" t="s">
         <v>43</v>
@@ -20168,7 +20108,7 @@
         <v>385</v>
       </c>
       <c r="K28" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="S28">
         <v>1</v>
@@ -20185,7 +20125,7 @@
         <v>45</v>
       </c>
       <c r="D29" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="F29" t="s">
         <v>46</v>
@@ -20197,7 +20137,7 @@
         <v>385</v>
       </c>
       <c r="K29" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="S29">
         <v>1</v>
@@ -20214,7 +20154,7 @@
         <v>47</v>
       </c>
       <c r="D30" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="F30" t="s">
         <v>46</v>
@@ -20226,7 +20166,7 @@
         <v>385</v>
       </c>
       <c r="K30" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="S30">
         <v>1</v>
@@ -20234,25 +20174,28 @@
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>1796</v>
+        <v>1799</v>
       </c>
       <c r="B31">
-        <v>1796</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>48</v>
+        <v>1799</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>322</v>
       </c>
       <c r="D31" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="F31" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="G31" t="s">
         <v>351</v>
       </c>
+      <c r="H31" t="s">
+        <v>385</v>
+      </c>
       <c r="K31" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="S31">
         <v>1</v>
@@ -20260,25 +20203,28 @@
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>1797</v>
+        <v>1800</v>
       </c>
       <c r="B32">
-        <v>1797</v>
+        <v>1800</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>50</v>
+        <v>323</v>
       </c>
       <c r="D32" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="F32" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="G32" t="s">
         <v>351</v>
       </c>
+      <c r="H32" t="s">
+        <v>385</v>
+      </c>
       <c r="K32" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="S32">
         <v>1</v>
@@ -20286,13 +20232,13 @@
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>1799</v>
+        <v>1801</v>
       </c>
       <c r="B33">
-        <v>1799</v>
+        <v>1801</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>322</v>
+        <v>374</v>
       </c>
       <c r="D33" t="s">
         <v>356</v>
@@ -20307,7 +20253,7 @@
         <v>385</v>
       </c>
       <c r="K33" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="S33">
         <v>1</v>
@@ -20315,19 +20261,19 @@
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>1800</v>
+        <v>1802</v>
       </c>
       <c r="B34">
-        <v>1800</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>323</v>
+        <v>1802</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>375</v>
       </c>
       <c r="D34" t="s">
         <v>356</v>
       </c>
       <c r="F34" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G34" t="s">
         <v>351</v>
@@ -20336,7 +20282,7 @@
         <v>385</v>
       </c>
       <c r="K34" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="S34">
         <v>1</v>
@@ -20344,19 +20290,19 @@
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>1801</v>
+        <v>1803</v>
       </c>
       <c r="B35">
-        <v>1801</v>
+        <v>1803</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="D35" t="s">
         <v>356</v>
       </c>
       <c r="F35" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G35" t="s">
         <v>351</v>
@@ -20365,7 +20311,7 @@
         <v>385</v>
       </c>
       <c r="K35" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="S35">
         <v>1</v>
@@ -20373,13 +20319,13 @@
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>1802</v>
+        <v>1804</v>
       </c>
       <c r="B36">
-        <v>1802</v>
+        <v>1804</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="D36" t="s">
         <v>356</v>
@@ -20394,7 +20340,7 @@
         <v>385</v>
       </c>
       <c r="K36" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="S36">
         <v>1</v>
@@ -20402,19 +20348,19 @@
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>1803</v>
+        <v>1805</v>
       </c>
       <c r="B37">
-        <v>1803</v>
+        <v>1805</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="D37" t="s">
         <v>356</v>
       </c>
       <c r="F37" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G37" t="s">
         <v>351</v>
@@ -20423,7 +20369,7 @@
         <v>385</v>
       </c>
       <c r="K37" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="S37">
         <v>1</v>
@@ -20431,19 +20377,19 @@
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>1804</v>
+        <v>1806</v>
       </c>
       <c r="B38">
-        <v>1804</v>
+        <v>1806</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D38" t="s">
         <v>356</v>
       </c>
       <c r="F38" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G38" t="s">
         <v>351</v>
@@ -20452,7 +20398,7 @@
         <v>385</v>
       </c>
       <c r="K38" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="S38">
         <v>1</v>
@@ -20460,13 +20406,13 @@
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>1805</v>
+        <v>1807</v>
       </c>
       <c r="B39">
-        <v>1805</v>
+        <v>1807</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="D39" t="s">
         <v>356</v>
@@ -20481,7 +20427,7 @@
         <v>385</v>
       </c>
       <c r="K39" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="S39">
         <v>1</v>
@@ -20489,19 +20435,19 @@
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>1806</v>
+        <v>1808</v>
       </c>
       <c r="B40">
-        <v>1806</v>
+        <v>1808</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="D40" t="s">
         <v>356</v>
       </c>
       <c r="F40" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G40" t="s">
         <v>351</v>
@@ -20510,7 +20456,7 @@
         <v>385</v>
       </c>
       <c r="K40" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="S40">
         <v>1</v>
@@ -20518,19 +20464,19 @@
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>1807</v>
+        <v>1809</v>
       </c>
       <c r="B41">
-        <v>1807</v>
+        <v>1809</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="D41" t="s">
         <v>356</v>
       </c>
       <c r="F41" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G41" t="s">
         <v>351</v>
@@ -20539,7 +20485,7 @@
         <v>385</v>
       </c>
       <c r="K41" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="S41">
         <v>1</v>
@@ -20547,13 +20493,13 @@
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>1808</v>
+        <v>1810</v>
       </c>
       <c r="B42">
-        <v>1808</v>
+        <v>1810</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="D42" t="s">
         <v>356</v>
@@ -20568,7 +20514,7 @@
         <v>385</v>
       </c>
       <c r="K42" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="S42">
         <v>1</v>
@@ -20576,13 +20522,13 @@
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>1809</v>
+        <v>1811</v>
       </c>
       <c r="B43">
-        <v>1809</v>
+        <v>1811</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="D43" t="s">
         <v>356</v>
@@ -20597,7 +20543,7 @@
         <v>385</v>
       </c>
       <c r="K43" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="S43">
         <v>1</v>
@@ -20605,28 +20551,25 @@
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>1810</v>
+        <v>1812</v>
       </c>
       <c r="B44">
-        <v>1810</v>
+        <v>1812</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>383</v>
+        <v>69</v>
       </c>
       <c r="D44" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F44" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="G44" t="s">
         <v>351</v>
       </c>
-      <c r="H44" t="s">
-        <v>385</v>
-      </c>
       <c r="K44" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="S44">
         <v>1</v>
@@ -20634,19 +20577,19 @@
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>1811</v>
+        <v>1813</v>
       </c>
       <c r="B45">
-        <v>1811</v>
+        <v>1813</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>384</v>
+        <v>71</v>
       </c>
       <c r="D45" t="s">
         <v>356</v>
       </c>
       <c r="F45" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="G45" t="s">
         <v>351</v>
@@ -20655,7 +20598,7 @@
         <v>385</v>
       </c>
       <c r="K45" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="S45">
         <v>1</v>
@@ -20663,25 +20606,28 @@
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>1812</v>
+        <v>1814</v>
       </c>
       <c r="B46">
-        <v>1812</v>
+        <v>1814</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D46" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="F46" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G46" t="s">
         <v>351</v>
       </c>
+      <c r="H46" t="s">
+        <v>385</v>
+      </c>
       <c r="K46" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="S46">
         <v>1</v>
@@ -20689,19 +20635,19 @@
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>1813</v>
+        <v>1815</v>
       </c>
       <c r="B47">
-        <v>1813</v>
+        <v>1815</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D47" t="s">
         <v>356</v>
       </c>
       <c r="F47" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G47" t="s">
         <v>351</v>
@@ -20710,7 +20656,7 @@
         <v>385</v>
       </c>
       <c r="K47" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="S47">
         <v>1</v>
@@ -20718,19 +20664,19 @@
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>1814</v>
+        <v>1816</v>
       </c>
       <c r="B48">
-        <v>1814</v>
+        <v>1816</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D48" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F48" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G48" t="s">
         <v>351</v>
@@ -20739,7 +20685,7 @@
         <v>385</v>
       </c>
       <c r="K48" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="S48">
         <v>1</v>
@@ -20747,19 +20693,19 @@
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>1815</v>
+        <v>1817</v>
       </c>
       <c r="B49">
-        <v>1815</v>
+        <v>1817</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D49" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F49" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G49" t="s">
         <v>351</v>
@@ -20768,7 +20714,7 @@
         <v>385</v>
       </c>
       <c r="K49" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="S49">
         <v>1</v>
@@ -20776,19 +20722,19 @@
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>1816</v>
+        <v>1820</v>
       </c>
       <c r="B50">
-        <v>1816</v>
+        <v>1820</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="D50" t="s">
         <v>357</v>
       </c>
       <c r="F50" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G50" t="s">
         <v>351</v>
@@ -20797,7 +20743,7 @@
         <v>385</v>
       </c>
       <c r="K50" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="S50">
         <v>1</v>
@@ -20805,19 +20751,19 @@
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>1817</v>
+        <v>1821</v>
       </c>
       <c r="B51">
-        <v>1817</v>
+        <v>1821</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="D51" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F51" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G51" t="s">
         <v>351</v>
@@ -20826,7 +20772,7 @@
         <v>385</v>
       </c>
       <c r="K51" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="S51">
         <v>1</v>
@@ -20834,19 +20780,19 @@
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>1820</v>
+        <v>1822</v>
       </c>
       <c r="B52">
-        <v>1820</v>
+        <v>1822</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D52" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F52" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G52" t="s">
         <v>351</v>
@@ -20855,7 +20801,7 @@
         <v>385</v>
       </c>
       <c r="K52" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="S52">
         <v>1</v>
@@ -20863,19 +20809,19 @@
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>1821</v>
+        <v>1823</v>
       </c>
       <c r="B53">
-        <v>1821</v>
+        <v>1823</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D53" t="s">
         <v>358</v>
       </c>
       <c r="F53" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G53" t="s">
         <v>351</v>
@@ -20884,7 +20830,7 @@
         <v>385</v>
       </c>
       <c r="K53" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="S53">
         <v>1</v>
@@ -20892,19 +20838,19 @@
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>1822</v>
+        <v>1824</v>
       </c>
       <c r="B54">
-        <v>1822</v>
+        <v>1824</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D54" t="s">
         <v>358</v>
       </c>
       <c r="F54" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G54" t="s">
         <v>351</v>
@@ -20913,7 +20859,7 @@
         <v>385</v>
       </c>
       <c r="K54" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="S54">
         <v>1</v>
@@ -20921,19 +20867,19 @@
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>1823</v>
+        <v>1825</v>
       </c>
       <c r="B55">
-        <v>1823</v>
+        <v>1825</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D55" t="s">
         <v>358</v>
       </c>
       <c r="F55" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G55" t="s">
         <v>351</v>
@@ -20942,7 +20888,7 @@
         <v>385</v>
       </c>
       <c r="K55" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="S55">
         <v>1</v>
@@ -20950,13 +20896,13 @@
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>1824</v>
+        <v>1826</v>
       </c>
       <c r="B56">
-        <v>1824</v>
+        <v>1826</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D56" t="s">
         <v>358</v>
@@ -20971,7 +20917,7 @@
         <v>385</v>
       </c>
       <c r="K56" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="S56">
         <v>1</v>
@@ -20979,19 +20925,19 @@
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>1825</v>
+        <v>1827</v>
       </c>
       <c r="B57">
-        <v>1825</v>
+        <v>1827</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D57" t="s">
         <v>358</v>
       </c>
       <c r="F57" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G57" t="s">
         <v>351</v>
@@ -21000,7 +20946,7 @@
         <v>385</v>
       </c>
       <c r="K57" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="S57">
         <v>1</v>
@@ -21008,19 +20954,19 @@
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>1826</v>
+        <v>1828</v>
       </c>
       <c r="B58">
-        <v>1826</v>
+        <v>1828</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D58" t="s">
         <v>358</v>
       </c>
       <c r="F58" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G58" t="s">
         <v>351</v>
@@ -21029,7 +20975,7 @@
         <v>385</v>
       </c>
       <c r="K58" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="S58">
         <v>1</v>
@@ -21037,19 +20983,19 @@
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>1827</v>
+        <v>1829</v>
       </c>
       <c r="B59">
-        <v>1827</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>97</v>
+        <v>1829</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>99</v>
       </c>
       <c r="D59" t="s">
         <v>358</v>
       </c>
       <c r="F59" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="G59" t="s">
         <v>351</v>
@@ -21058,7 +21004,7 @@
         <v>385</v>
       </c>
       <c r="K59" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="S59">
         <v>1</v>
@@ -21066,19 +21012,19 @@
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>1828</v>
+        <v>1830</v>
       </c>
       <c r="B60">
-        <v>1828</v>
+        <v>1830</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D60" t="s">
         <v>358</v>
       </c>
       <c r="F60" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="G60" t="s">
         <v>351</v>
@@ -21087,7 +21033,7 @@
         <v>385</v>
       </c>
       <c r="K60" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="S60">
         <v>1</v>
@@ -21095,19 +21041,19 @@
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>1829</v>
+        <v>1831</v>
       </c>
       <c r="B61">
-        <v>1829</v>
-      </c>
-      <c r="C61" s="7" t="s">
-        <v>99</v>
+        <v>1831</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>102</v>
       </c>
       <c r="D61" t="s">
         <v>358</v>
       </c>
       <c r="F61" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="G61" t="s">
         <v>351</v>
@@ -21116,7 +21062,7 @@
         <v>385</v>
       </c>
       <c r="K61" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="S61">
         <v>1</v>
@@ -21124,19 +21070,19 @@
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>1830</v>
+        <v>1832</v>
       </c>
       <c r="B62">
-        <v>1830</v>
+        <v>1832</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D62" t="s">
         <v>358</v>
       </c>
       <c r="F62" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="G62" t="s">
         <v>351</v>
@@ -21145,7 +21091,7 @@
         <v>385</v>
       </c>
       <c r="K62" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="S62">
         <v>1</v>
@@ -21153,19 +21099,19 @@
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>1831</v>
+        <v>1833</v>
       </c>
       <c r="B63">
-        <v>1831</v>
+        <v>1833</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D63" t="s">
         <v>358</v>
       </c>
       <c r="F63" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G63" t="s">
         <v>351</v>
@@ -21174,7 +21120,7 @@
         <v>385</v>
       </c>
       <c r="K63" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="S63">
         <v>1</v>
@@ -21182,19 +21128,19 @@
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>1832</v>
+        <v>1834</v>
       </c>
       <c r="B64">
-        <v>1832</v>
+        <v>1834</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D64" t="s">
         <v>358</v>
       </c>
       <c r="F64" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G64" t="s">
         <v>351</v>
@@ -21203,7 +21149,7 @@
         <v>385</v>
       </c>
       <c r="K64" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="S64">
         <v>1</v>
@@ -21211,19 +21157,19 @@
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>1833</v>
+        <v>1835</v>
       </c>
       <c r="B65">
-        <v>1833</v>
+        <v>1835</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D65" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F65" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="G65" t="s">
         <v>351</v>
@@ -21232,7 +21178,7 @@
         <v>385</v>
       </c>
       <c r="K65" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="S65">
         <v>1</v>
@@ -21240,19 +21186,19 @@
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>1834</v>
+        <v>1836</v>
       </c>
       <c r="B66">
-        <v>1834</v>
+        <v>1836</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D66" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F66" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="G66" t="s">
         <v>351</v>
@@ -21261,7 +21207,7 @@
         <v>385</v>
       </c>
       <c r="K66" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="S66">
         <v>1</v>
@@ -21269,19 +21215,19 @@
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>1835</v>
+        <v>1837</v>
       </c>
       <c r="B67">
-        <v>1835</v>
+        <v>1837</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D67" t="s">
         <v>359</v>
       </c>
       <c r="F67" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G67" t="s">
         <v>351</v>
@@ -21290,7 +21236,7 @@
         <v>385</v>
       </c>
       <c r="K67" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="S67">
         <v>1</v>
@@ -21298,19 +21244,19 @@
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>1836</v>
+        <v>1838</v>
       </c>
       <c r="B68">
-        <v>1836</v>
+        <v>1838</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D68" t="s">
         <v>359</v>
       </c>
       <c r="F68" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="G68" t="s">
         <v>351</v>
@@ -21319,7 +21265,7 @@
         <v>385</v>
       </c>
       <c r="K68" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="S68">
         <v>1</v>
@@ -21327,19 +21273,19 @@
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>1837</v>
+        <v>1839</v>
       </c>
       <c r="B69">
-        <v>1837</v>
+        <v>1839</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="D69" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F69" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="G69" t="s">
         <v>351</v>
@@ -21348,7 +21294,7 @@
         <v>385</v>
       </c>
       <c r="K69" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="S69">
         <v>1</v>
@@ -21356,19 +21302,19 @@
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>1838</v>
+        <v>1840</v>
       </c>
       <c r="B70">
-        <v>1838</v>
+        <v>1840</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="D70" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F70" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="G70" t="s">
         <v>351</v>
@@ -21377,7 +21323,7 @@
         <v>385</v>
       </c>
       <c r="K70" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="S70">
         <v>1</v>
@@ -21385,19 +21331,19 @@
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>1839</v>
+        <v>1841</v>
       </c>
       <c r="B71">
-        <v>1839</v>
+        <v>1841</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D71" t="s">
         <v>357</v>
       </c>
       <c r="F71" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="G71" t="s">
         <v>351</v>
@@ -21406,7 +21352,7 @@
         <v>385</v>
       </c>
       <c r="K71" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="S71">
         <v>1</v>
@@ -21414,19 +21360,19 @@
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>1840</v>
+        <v>1842</v>
       </c>
       <c r="B72">
-        <v>1840</v>
+        <v>1842</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="D72" t="s">
         <v>357</v>
       </c>
       <c r="F72" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G72" t="s">
         <v>351</v>
@@ -21435,7 +21381,7 @@
         <v>385</v>
       </c>
       <c r="K72" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="S72">
         <v>1</v>
@@ -21443,19 +21389,19 @@
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>1841</v>
+        <v>1843</v>
       </c>
       <c r="B73">
-        <v>1841</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>121</v>
+        <v>1843</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="D73" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="F73" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="G73" t="s">
         <v>351</v>
@@ -21464,7 +21410,7 @@
         <v>385</v>
       </c>
       <c r="K73" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="S73">
         <v>1</v>
@@ -21472,19 +21418,19 @@
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>1842</v>
+        <v>1844</v>
       </c>
       <c r="B74">
-        <v>1842</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>123</v>
+        <v>1844</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>127</v>
       </c>
       <c r="D74" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="F74" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G74" t="s">
         <v>351</v>
@@ -21493,7 +21439,7 @@
         <v>385</v>
       </c>
       <c r="K74" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="S74">
         <v>1</v>
@@ -21501,19 +21447,19 @@
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>1843</v>
+        <v>1845</v>
       </c>
       <c r="B75">
-        <v>1843</v>
-      </c>
-      <c r="C75" s="7" t="s">
-        <v>125</v>
+        <v>1845</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>128</v>
       </c>
       <c r="D75" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="F75" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="G75" t="s">
         <v>351</v>
@@ -21522,7 +21468,7 @@
         <v>385</v>
       </c>
       <c r="K75" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="S75">
         <v>1</v>
@@ -21530,19 +21476,19 @@
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>1844</v>
+        <v>1846</v>
       </c>
       <c r="B76">
-        <v>1844</v>
-      </c>
-      <c r="C76" s="7" t="s">
-        <v>127</v>
+        <v>1846</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>129</v>
       </c>
       <c r="D76" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="F76" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="G76" t="s">
         <v>351</v>
@@ -21551,7 +21497,7 @@
         <v>385</v>
       </c>
       <c r="K76" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="S76">
         <v>1</v>
@@ -21559,28 +21505,25 @@
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>1845</v>
+        <v>1847</v>
       </c>
       <c r="B77">
-        <v>1845</v>
+        <v>1847</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D77" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="F77" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="G77" t="s">
         <v>351</v>
       </c>
-      <c r="H77" t="s">
-        <v>385</v>
-      </c>
       <c r="K77" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="S77">
         <v>1</v>
@@ -21588,19 +21531,19 @@
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>1846</v>
+        <v>1848</v>
       </c>
       <c r="B78">
-        <v>1846</v>
+        <v>1848</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D78" t="s">
         <v>353</v>
       </c>
       <c r="F78" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="G78" t="s">
         <v>351</v>
@@ -21609,7 +21552,7 @@
         <v>385</v>
       </c>
       <c r="K78" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="S78">
         <v>1</v>
@@ -21617,25 +21560,28 @@
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>1847</v>
+        <v>1849</v>
       </c>
       <c r="B79">
-        <v>1847</v>
+        <v>1849</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D79" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="F79" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="G79" t="s">
         <v>351</v>
       </c>
+      <c r="H79" t="s">
+        <v>385</v>
+      </c>
       <c r="K79" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="S79">
         <v>1</v>
@@ -21643,19 +21589,19 @@
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>1848</v>
+        <v>1850</v>
       </c>
       <c r="B80">
-        <v>1848</v>
+        <v>1850</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D80" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="F80" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="G80" t="s">
         <v>351</v>
@@ -21664,7 +21610,7 @@
         <v>385</v>
       </c>
       <c r="K80" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="S80">
         <v>1</v>
@@ -21672,19 +21618,19 @@
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>1849</v>
+        <v>1851</v>
       </c>
       <c r="B81">
-        <v>1849</v>
+        <v>1851</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D81" t="s">
         <v>359</v>
       </c>
       <c r="F81" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="G81" t="s">
         <v>351</v>
@@ -21693,7 +21639,7 @@
         <v>385</v>
       </c>
       <c r="K81" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="S81">
         <v>1</v>
@@ -21701,19 +21647,19 @@
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>1850</v>
+        <v>1852</v>
       </c>
       <c r="B82">
-        <v>1850</v>
+        <v>1852</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D82" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="F82" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="G82" t="s">
         <v>351</v>
@@ -21722,7 +21668,7 @@
         <v>385</v>
       </c>
       <c r="K82" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="S82">
         <v>1</v>
@@ -21730,19 +21676,19 @@
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>1851</v>
+        <v>1853</v>
       </c>
       <c r="B83">
-        <v>1851</v>
+        <v>1853</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D83" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="F83" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="G83" t="s">
         <v>351</v>
@@ -21751,7 +21697,7 @@
         <v>385</v>
       </c>
       <c r="K83" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="S83">
         <v>1</v>
@@ -21759,19 +21705,19 @@
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>1852</v>
+        <v>1854</v>
       </c>
       <c r="B84">
-        <v>1852</v>
+        <v>1854</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="D84" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="F84" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="G84" t="s">
         <v>351</v>
@@ -21780,7 +21726,7 @@
         <v>385</v>
       </c>
       <c r="K84" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="S84">
         <v>1</v>
@@ -21788,19 +21734,19 @@
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>1853</v>
+        <v>1855</v>
       </c>
       <c r="B85">
-        <v>1853</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>141</v>
+        <v>1855</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>145</v>
       </c>
       <c r="D85" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="F85" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="G85" t="s">
         <v>351</v>
@@ -21809,7 +21755,7 @@
         <v>385</v>
       </c>
       <c r="K85" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="S85">
         <v>1</v>
@@ -21817,19 +21763,19 @@
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>1854</v>
+        <v>1856</v>
       </c>
       <c r="B86">
-        <v>1854</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>144</v>
+        <v>1856</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>146</v>
       </c>
       <c r="D86" t="s">
         <v>357</v>
       </c>
       <c r="F86" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="G86" t="s">
         <v>351</v>
@@ -21838,7 +21784,7 @@
         <v>385</v>
       </c>
       <c r="K86" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="S86">
         <v>1</v>
@@ -21846,19 +21792,19 @@
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>1855</v>
+        <v>1857</v>
       </c>
       <c r="B87">
-        <v>1855</v>
-      </c>
-      <c r="C87" s="7" t="s">
-        <v>145</v>
+        <v>1857</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>147</v>
       </c>
       <c r="D87" t="s">
         <v>357</v>
       </c>
       <c r="F87" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G87" t="s">
         <v>351</v>
@@ -21867,7 +21813,7 @@
         <v>385</v>
       </c>
       <c r="K87" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="S87">
         <v>1</v>
@@ -21875,19 +21821,19 @@
     </row>
     <row r="88" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>1856</v>
+        <v>1858</v>
       </c>
       <c r="B88">
-        <v>1856</v>
+        <v>1858</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D88" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="F88" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="G88" t="s">
         <v>351</v>
@@ -21896,7 +21842,7 @@
         <v>385</v>
       </c>
       <c r="K88" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="S88">
         <v>1</v>
@@ -21904,19 +21850,19 @@
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>1857</v>
+        <v>1859</v>
       </c>
       <c r="B89">
-        <v>1857</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>147</v>
+        <v>1859</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>149</v>
       </c>
       <c r="D89" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="F89" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G89" t="s">
         <v>351</v>
@@ -21925,7 +21871,7 @@
         <v>385</v>
       </c>
       <c r="K89" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="S89">
         <v>1</v>
@@ -21933,19 +21879,19 @@
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>1858</v>
+        <v>1860</v>
       </c>
       <c r="B90">
-        <v>1858</v>
+        <v>1860</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D90" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="F90" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="G90" t="s">
         <v>351</v>
@@ -21954,7 +21900,7 @@
         <v>385</v>
       </c>
       <c r="K90" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="S90">
         <v>1</v>
@@ -21962,19 +21908,19 @@
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>1859</v>
+        <v>1861</v>
       </c>
       <c r="B91">
-        <v>1859</v>
+        <v>1861</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D91" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="F91" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="G91" t="s">
         <v>351</v>
@@ -21983,7 +21929,7 @@
         <v>385</v>
       </c>
       <c r="K91" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="S91">
         <v>1</v>
@@ -21991,28 +21937,25 @@
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>1860</v>
+        <v>1862</v>
       </c>
       <c r="B92">
-        <v>1860</v>
+        <v>1862</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D92" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="F92" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="G92" t="s">
         <v>351</v>
       </c>
-      <c r="H92" t="s">
-        <v>385</v>
-      </c>
       <c r="K92" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="S92">
         <v>1</v>
@@ -22020,19 +21963,19 @@
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>1861</v>
+        <v>1863</v>
       </c>
       <c r="B93">
-        <v>1861</v>
+        <v>1863</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D93" t="s">
         <v>353</v>
       </c>
       <c r="F93" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="G93" t="s">
         <v>351</v>
@@ -22041,7 +21984,7 @@
         <v>385</v>
       </c>
       <c r="K93" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="S93">
         <v>1</v>
@@ -22049,25 +21992,28 @@
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>1862</v>
+        <v>1864</v>
       </c>
       <c r="B94">
-        <v>1862</v>
+        <v>1864</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D94" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="F94" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="G94" t="s">
         <v>351</v>
       </c>
+      <c r="H94" t="s">
+        <v>385</v>
+      </c>
       <c r="K94" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="S94">
         <v>1</v>
@@ -22075,19 +22021,19 @@
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>1863</v>
+        <v>1865</v>
       </c>
       <c r="B95">
-        <v>1863</v>
+        <v>1865</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D95" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="F95" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="G95" t="s">
         <v>351</v>
@@ -22096,7 +22042,7 @@
         <v>385</v>
       </c>
       <c r="K95" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="S95">
         <v>1</v>
@@ -22104,19 +22050,19 @@
     </row>
     <row r="96" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>1864</v>
+        <v>1866</v>
       </c>
       <c r="B96">
-        <v>1864</v>
+        <v>1866</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D96" t="s">
         <v>359</v>
       </c>
       <c r="F96" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="G96" t="s">
         <v>351</v>
@@ -22125,7 +22071,7 @@
         <v>385</v>
       </c>
       <c r="K96" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="S96">
         <v>1</v>
@@ -22133,19 +22079,19 @@
     </row>
     <row r="97" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>1865</v>
+        <v>1867</v>
       </c>
       <c r="B97">
-        <v>1865</v>
-      </c>
-      <c r="C97" s="7" t="s">
-        <v>155</v>
+        <v>1867</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>157</v>
       </c>
       <c r="D97" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="F97" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="G97" t="s">
         <v>351</v>
@@ -22154,7 +22100,7 @@
         <v>385</v>
       </c>
       <c r="K97" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="S97">
         <v>1</v>
@@ -22162,19 +22108,19 @@
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>1866</v>
+        <v>1868</v>
       </c>
       <c r="B98">
-        <v>1866</v>
+        <v>1868</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D98" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="F98" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="G98" t="s">
         <v>351</v>
@@ -22183,7 +22129,7 @@
         <v>385</v>
       </c>
       <c r="K98" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="S98">
         <v>1</v>
@@ -22191,28 +22137,28 @@
     </row>
     <row r="99" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>1867</v>
+        <v>1869</v>
       </c>
       <c r="B99">
-        <v>1867</v>
+        <v>1869</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D99" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="F99" t="s">
-        <v>140</v>
+        <v>161</v>
       </c>
       <c r="G99" t="s">
         <v>351</v>
       </c>
       <c r="H99" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="K99" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="S99">
         <v>1</v>
@@ -22220,28 +22166,28 @@
     </row>
     <row r="100" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>1868</v>
+        <v>1870</v>
       </c>
       <c r="B100">
-        <v>1868</v>
-      </c>
-      <c r="C100" s="7" t="s">
-        <v>158</v>
+        <v>1870</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>162</v>
       </c>
       <c r="D100" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="F100" t="s">
-        <v>142</v>
+        <v>163</v>
       </c>
       <c r="G100" t="s">
         <v>351</v>
       </c>
       <c r="H100" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="K100" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="S100">
         <v>1</v>
@@ -22249,19 +22195,19 @@
     </row>
     <row r="101" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>1869</v>
+        <v>1871</v>
       </c>
       <c r="B101">
-        <v>1869</v>
+        <v>1871</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="D101" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="F101" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="G101" t="s">
         <v>351</v>
@@ -22270,7 +22216,7 @@
         <v>386</v>
       </c>
       <c r="K101" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="S101">
         <v>1</v>
@@ -22278,19 +22224,19 @@
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>1870</v>
+        <v>1872</v>
       </c>
       <c r="B102">
-        <v>1870</v>
+        <v>1872</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="D102" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="F102" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="G102" t="s">
         <v>351</v>
@@ -22299,7 +22245,7 @@
         <v>386</v>
       </c>
       <c r="K102" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="S102">
         <v>1</v>
@@ -22307,19 +22253,19 @@
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>1871</v>
+        <v>1873</v>
       </c>
       <c r="B103">
-        <v>1871</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>164</v>
+        <v>1873</v>
+      </c>
+      <c r="C103" s="7" t="s">
+        <v>168</v>
       </c>
       <c r="D103" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="F103" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G103" t="s">
         <v>351</v>
@@ -22328,7 +22274,7 @@
         <v>386</v>
       </c>
       <c r="K103" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="S103">
         <v>1</v>
@@ -22336,19 +22282,19 @@
     </row>
     <row r="104" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>1872</v>
+        <v>1874</v>
       </c>
       <c r="B104">
-        <v>1872</v>
+        <v>1874</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D104" t="s">
         <v>360</v>
       </c>
       <c r="F104" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G104" t="s">
         <v>351</v>
@@ -22357,7 +22303,7 @@
         <v>386</v>
       </c>
       <c r="K104" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="S104">
         <v>1</v>
@@ -22365,19 +22311,19 @@
     </row>
     <row r="105" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>1873</v>
+        <v>1875</v>
       </c>
       <c r="B105">
-        <v>1873</v>
-      </c>
-      <c r="C105" s="7" t="s">
-        <v>168</v>
+        <v>1875</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>171</v>
       </c>
       <c r="D105" t="s">
         <v>360</v>
       </c>
       <c r="F105" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="G105" t="s">
         <v>351</v>
@@ -22386,7 +22332,7 @@
         <v>386</v>
       </c>
       <c r="K105" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="S105">
         <v>1</v>
@@ -22394,28 +22340,25 @@
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>1874</v>
+        <v>1876</v>
       </c>
       <c r="B106">
-        <v>1874</v>
+        <v>1876</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="D106" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="F106" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="G106" t="s">
         <v>351</v>
       </c>
-      <c r="H106" t="s">
-        <v>386</v>
-      </c>
       <c r="K106" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="S106">
         <v>1</v>
@@ -22423,28 +22366,25 @@
     </row>
     <row r="107" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>1875</v>
+        <v>1877</v>
       </c>
       <c r="B107">
-        <v>1875</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>171</v>
+        <v>1877</v>
+      </c>
+      <c r="C107" s="7" t="s">
+        <v>175</v>
       </c>
       <c r="D107" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="F107" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G107" t="s">
         <v>351</v>
       </c>
-      <c r="H107" t="s">
-        <v>386</v>
-      </c>
       <c r="K107" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="S107">
         <v>1</v>
@@ -22452,25 +22392,28 @@
     </row>
     <row r="108" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>1876</v>
+        <v>1878</v>
       </c>
       <c r="B108">
-        <v>1876</v>
+        <v>1878</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D108" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="F108" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="G108" t="s">
         <v>351</v>
       </c>
+      <c r="H108" t="s">
+        <v>386</v>
+      </c>
       <c r="K108" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="S108">
         <v>1</v>
@@ -22478,25 +22421,28 @@
     </row>
     <row r="109" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>1877</v>
+        <v>1879</v>
       </c>
       <c r="B109">
-        <v>1877</v>
-      </c>
-      <c r="C109" s="7" t="s">
-        <v>175</v>
+        <v>1879</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>178</v>
       </c>
       <c r="D109" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="F109" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="G109" t="s">
         <v>351</v>
       </c>
+      <c r="H109" t="s">
+        <v>386</v>
+      </c>
       <c r="K109" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="S109">
         <v>1</v>
@@ -22504,19 +22450,19 @@
     </row>
     <row r="110" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>1878</v>
+        <v>1880</v>
       </c>
       <c r="B110">
-        <v>1878</v>
+        <v>1880</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D110" t="s">
         <v>357</v>
       </c>
       <c r="F110" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="G110" t="s">
         <v>351</v>
@@ -22525,7 +22471,7 @@
         <v>386</v>
       </c>
       <c r="K110" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="S110">
         <v>1</v>
@@ -22533,19 +22479,19 @@
     </row>
     <row r="111" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>1879</v>
+        <v>1881</v>
       </c>
       <c r="B111">
-        <v>1879</v>
+        <v>1881</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D111" t="s">
-        <v>357</v>
+        <v>387</v>
       </c>
       <c r="F111" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="G111" t="s">
         <v>351</v>
@@ -22554,7 +22500,7 @@
         <v>386</v>
       </c>
       <c r="K111" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="S111">
         <v>1</v>
@@ -22562,28 +22508,28 @@
     </row>
     <row r="112" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>1880</v>
+        <v>1882</v>
       </c>
       <c r="B112">
-        <v>1880</v>
+        <v>1882</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="D112" t="s">
-        <v>357</v>
+        <v>387</v>
       </c>
       <c r="F112" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="G112" t="s">
         <v>351</v>
       </c>
       <c r="H112" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K112" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="S112">
         <v>1</v>
@@ -22591,28 +22537,28 @@
     </row>
     <row r="113" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>1881</v>
+        <v>1883</v>
       </c>
       <c r="B113">
-        <v>1881</v>
+        <v>1883</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D113" t="s">
         <v>387</v>
       </c>
       <c r="F113" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="G113" t="s">
         <v>351</v>
       </c>
       <c r="H113" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K113" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="S113">
         <v>1</v>
@@ -22620,19 +22566,19 @@
     </row>
     <row r="114" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>1882</v>
+        <v>1884</v>
       </c>
       <c r="B114">
-        <v>1882</v>
+        <v>1884</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>183</v>
+        <v>388</v>
       </c>
       <c r="D114" t="s">
         <v>387</v>
       </c>
       <c r="F114" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="G114" t="s">
         <v>351</v>
@@ -22641,7 +22587,7 @@
         <v>385</v>
       </c>
       <c r="K114" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="S114">
         <v>1</v>
@@ -22649,19 +22595,19 @@
     </row>
     <row r="115" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>1883</v>
+        <v>1887</v>
       </c>
       <c r="B115">
-        <v>1883</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>185</v>
+        <v>1887</v>
+      </c>
+      <c r="C115" s="7" t="s">
+        <v>193</v>
       </c>
       <c r="D115" t="s">
-        <v>387</v>
+        <v>361</v>
       </c>
       <c r="F115" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="G115" t="s">
         <v>351</v>
@@ -22670,7 +22616,7 @@
         <v>385</v>
       </c>
       <c r="K115" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="S115">
         <v>1</v>
@@ -22678,28 +22624,28 @@
     </row>
     <row r="116" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>1884</v>
+        <v>1888</v>
       </c>
       <c r="B116">
-        <v>1884</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>388</v>
+        <v>1888</v>
+      </c>
+      <c r="C116" s="7" t="s">
+        <v>195</v>
       </c>
       <c r="D116" t="s">
-        <v>387</v>
+        <v>361</v>
       </c>
       <c r="F116" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="G116" t="s">
         <v>351</v>
       </c>
       <c r="H116" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="K116" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="S116">
         <v>1</v>
@@ -22707,28 +22653,25 @@
     </row>
     <row r="117" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>1887</v>
+        <v>1890</v>
       </c>
       <c r="B117">
-        <v>1887</v>
-      </c>
-      <c r="C117" s="7" t="s">
-        <v>193</v>
+        <v>1890</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>199</v>
       </c>
       <c r="D117" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="F117" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="G117" t="s">
         <v>351</v>
       </c>
-      <c r="H117" t="s">
-        <v>385</v>
-      </c>
       <c r="K117" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="S117">
         <v>1</v>
@@ -22736,28 +22679,25 @@
     </row>
     <row r="118" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>1888</v>
+        <v>1891</v>
       </c>
       <c r="B118">
-        <v>1888</v>
+        <v>1891</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="D118" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="F118" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="G118" t="s">
         <v>351</v>
       </c>
-      <c r="H118" t="s">
-        <v>386</v>
-      </c>
       <c r="K118" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="S118">
         <v>1</v>
@@ -22765,25 +22705,25 @@
     </row>
     <row r="119" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>1889</v>
+        <v>1892</v>
       </c>
       <c r="B119">
-        <v>1889</v>
+        <v>1892</v>
       </c>
       <c r="C119" s="7" t="s">
-        <v>373</v>
+        <v>202</v>
       </c>
       <c r="D119" t="s">
         <v>363</v>
       </c>
       <c r="F119" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="G119" t="s">
         <v>351</v>
       </c>
       <c r="K119" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="S119">
         <v>1</v>
@@ -22791,25 +22731,25 @@
     </row>
     <row r="120" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>1890</v>
+        <v>1893</v>
       </c>
       <c r="B120">
-        <v>1890</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>199</v>
+        <v>1893</v>
+      </c>
+      <c r="C120" s="7" t="s">
+        <v>204</v>
       </c>
       <c r="D120" t="s">
         <v>363</v>
       </c>
       <c r="F120" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="G120" t="s">
         <v>351</v>
       </c>
       <c r="K120" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="S120">
         <v>1</v>
@@ -22817,25 +22757,25 @@
     </row>
     <row r="121" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>1891</v>
+        <v>1894</v>
       </c>
       <c r="B121">
-        <v>1891</v>
-      </c>
-      <c r="C121" s="7" t="s">
-        <v>201</v>
+        <v>1894</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>207</v>
       </c>
       <c r="D121" t="s">
         <v>363</v>
       </c>
       <c r="F121" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="G121" t="s">
         <v>351</v>
       </c>
       <c r="K121" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="S121">
         <v>1</v>
@@ -22843,25 +22783,25 @@
     </row>
     <row r="122" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>1892</v>
+        <v>1895</v>
       </c>
       <c r="B122">
-        <v>1892</v>
-      </c>
-      <c r="C122" s="7" t="s">
-        <v>202</v>
+        <v>1895</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>209</v>
       </c>
       <c r="D122" t="s">
         <v>363</v>
       </c>
       <c r="F122" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="G122" t="s">
         <v>351</v>
       </c>
       <c r="K122" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="S122">
         <v>1</v>
@@ -22869,25 +22809,25 @@
     </row>
     <row r="123" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>1893</v>
+        <v>1896</v>
       </c>
       <c r="B123">
-        <v>1893</v>
-      </c>
-      <c r="C123" s="7" t="s">
-        <v>204</v>
+        <v>1896</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>211</v>
       </c>
       <c r="D123" t="s">
         <v>363</v>
       </c>
       <c r="F123" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="G123" t="s">
         <v>351</v>
       </c>
       <c r="K123" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="S123">
         <v>1</v>
@@ -22895,25 +22835,25 @@
     </row>
     <row r="124" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>1894</v>
+        <v>1897</v>
       </c>
       <c r="B124">
-        <v>1894</v>
+        <v>1897</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="D124" t="s">
         <v>363</v>
       </c>
       <c r="F124" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="G124" t="s">
         <v>351</v>
       </c>
       <c r="K124" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="S124">
         <v>1</v>
@@ -22921,13 +22861,13 @@
     </row>
     <row r="125" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>1895</v>
+        <v>1898</v>
       </c>
       <c r="B125">
-        <v>1895</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>209</v>
+        <v>1898</v>
+      </c>
+      <c r="C125" s="7" t="s">
+        <v>213</v>
       </c>
       <c r="D125" t="s">
         <v>363</v>
@@ -22939,7 +22879,7 @@
         <v>351</v>
       </c>
       <c r="K125" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="S125">
         <v>1</v>
@@ -22947,25 +22887,25 @@
     </row>
     <row r="126" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>1896</v>
+        <v>1899</v>
       </c>
       <c r="B126">
-        <v>1896</v>
+        <v>1899</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D126" t="s">
         <v>363</v>
       </c>
       <c r="F126" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="G126" t="s">
         <v>351</v>
       </c>
       <c r="K126" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="S126">
         <v>1</v>
@@ -22973,25 +22913,28 @@
     </row>
     <row r="127" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>1897</v>
+        <v>1900</v>
       </c>
       <c r="B127">
-        <v>1897</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>212</v>
+        <v>1900</v>
+      </c>
+      <c r="C127" s="7" t="s">
+        <v>215</v>
       </c>
       <c r="D127" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F127" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="G127" t="s">
         <v>351</v>
       </c>
+      <c r="H127" t="s">
+        <v>385</v>
+      </c>
       <c r="K127" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="S127">
         <v>1</v>
@@ -22999,25 +22942,28 @@
     </row>
     <row r="128" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>1898</v>
+        <v>1901</v>
       </c>
       <c r="B128">
-        <v>1898</v>
+        <v>1901</v>
       </c>
       <c r="C128" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D128" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F128" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="G128" t="s">
         <v>351</v>
       </c>
+      <c r="H128" t="s">
+        <v>385</v>
+      </c>
       <c r="K128" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="S128">
         <v>1</v>
@@ -23025,25 +22971,28 @@
     </row>
     <row r="129" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>1899</v>
+        <v>1902</v>
       </c>
       <c r="B129">
-        <v>1899</v>
+        <v>1902</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="D129" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F129" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="G129" t="s">
         <v>351</v>
       </c>
+      <c r="H129" t="s">
+        <v>385</v>
+      </c>
       <c r="K129" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="S129">
         <v>1</v>
@@ -23051,19 +23000,19 @@
     </row>
     <row r="130" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>1900</v>
+        <v>1903</v>
       </c>
       <c r="B130">
-        <v>1900</v>
-      </c>
-      <c r="C130" s="7" t="s">
-        <v>215</v>
+        <v>1903</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>221</v>
       </c>
       <c r="D130" t="s">
         <v>364</v>
       </c>
       <c r="F130" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="G130" t="s">
         <v>351</v>
@@ -23072,7 +23021,7 @@
         <v>385</v>
       </c>
       <c r="K130" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="S130">
         <v>1</v>
@@ -23080,19 +23029,19 @@
     </row>
     <row r="131" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>1901</v>
+        <v>1904</v>
       </c>
       <c r="B131">
-        <v>1901</v>
+        <v>1904</v>
       </c>
       <c r="C131" s="7" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="D131" t="s">
         <v>364</v>
       </c>
       <c r="F131" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="G131" t="s">
         <v>351</v>
@@ -23101,7 +23050,7 @@
         <v>385</v>
       </c>
       <c r="K131" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="S131">
         <v>1</v>
@@ -23109,19 +23058,19 @@
     </row>
     <row r="132" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>1902</v>
+        <v>1905</v>
       </c>
       <c r="B132">
-        <v>1902</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>219</v>
+        <v>1905</v>
+      </c>
+      <c r="C132" s="7" t="s">
+        <v>225</v>
       </c>
       <c r="D132" t="s">
         <v>364</v>
       </c>
       <c r="F132" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="G132" t="s">
         <v>351</v>
@@ -23130,7 +23079,7 @@
         <v>385</v>
       </c>
       <c r="K132" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="S132">
         <v>1</v>
@@ -23138,19 +23087,19 @@
     </row>
     <row r="133" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>1903</v>
+        <v>1906</v>
       </c>
       <c r="B133">
-        <v>1903</v>
+        <v>1906</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="D133" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F133" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="G133" t="s">
         <v>351</v>
@@ -23159,7 +23108,7 @@
         <v>385</v>
       </c>
       <c r="K133" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="S133">
         <v>1</v>
@@ -23167,28 +23116,25 @@
     </row>
     <row r="134" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>1904</v>
+        <v>1907</v>
       </c>
       <c r="B134">
-        <v>1904</v>
-      </c>
-      <c r="C134" s="7" t="s">
-        <v>223</v>
+        <v>1907</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>228</v>
       </c>
       <c r="D134" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="F134" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="G134" t="s">
         <v>351</v>
       </c>
-      <c r="H134" t="s">
-        <v>385</v>
-      </c>
       <c r="K134" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="S134">
         <v>1</v>
@@ -23196,28 +23142,25 @@
     </row>
     <row r="135" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>1905</v>
+        <v>1908</v>
       </c>
       <c r="B135">
-        <v>1905</v>
-      </c>
-      <c r="C135" s="7" t="s">
-        <v>225</v>
+        <v>1908</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>230</v>
       </c>
       <c r="D135" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="F135" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="G135" t="s">
         <v>351</v>
       </c>
-      <c r="H135" t="s">
-        <v>385</v>
-      </c>
       <c r="K135" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="S135">
         <v>1</v>
@@ -23225,28 +23168,25 @@
     </row>
     <row r="136" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>1906</v>
+        <v>1909</v>
       </c>
       <c r="B136">
-        <v>1906</v>
+        <v>1909</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="D136" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F136" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="G136" t="s">
         <v>351</v>
       </c>
-      <c r="H136" t="s">
-        <v>385</v>
-      </c>
       <c r="K136" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="S136">
         <v>1</v>
@@ -23254,25 +23194,25 @@
     </row>
     <row r="137" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>1907</v>
+        <v>1910</v>
       </c>
       <c r="B137">
-        <v>1907</v>
+        <v>1910</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="D137" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="F137" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="G137" t="s">
         <v>351</v>
       </c>
       <c r="K137" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="S137">
         <v>1</v>
@@ -23280,25 +23220,25 @@
     </row>
     <row r="138" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>1908</v>
+        <v>1911</v>
       </c>
       <c r="B138">
-        <v>1908</v>
+        <v>1911</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="D138" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="F138" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="G138" t="s">
         <v>351</v>
       </c>
       <c r="K138" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="S138">
         <v>1</v>
@@ -23306,25 +23246,25 @@
     </row>
     <row r="139" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>1909</v>
+        <v>1912</v>
       </c>
       <c r="B139">
-        <v>1909</v>
+        <v>1912</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="D139" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="F139" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="G139" t="s">
         <v>351</v>
       </c>
       <c r="K139" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="S139">
         <v>1</v>
@@ -23332,25 +23272,28 @@
     </row>
     <row r="140" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>1910</v>
+        <v>1913</v>
       </c>
       <c r="B140">
-        <v>1910</v>
-      </c>
-      <c r="C140" s="1" t="s">
-        <v>234</v>
+        <v>1913</v>
+      </c>
+      <c r="C140" s="7" t="s">
+        <v>241</v>
       </c>
       <c r="D140" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="F140" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="G140" t="s">
         <v>351</v>
       </c>
+      <c r="H140" t="s">
+        <v>385</v>
+      </c>
       <c r="K140" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="S140">
         <v>1</v>
@@ -23358,25 +23301,28 @@
     </row>
     <row r="141" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>1911</v>
+        <v>1914</v>
       </c>
       <c r="B141">
-        <v>1911</v>
+        <v>1914</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="D141" t="s">
-        <v>354</v>
+        <v>366</v>
       </c>
       <c r="F141" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="G141" t="s">
         <v>351</v>
       </c>
+      <c r="H141" t="s">
+        <v>385</v>
+      </c>
       <c r="K141" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="S141">
         <v>1</v>
@@ -23384,25 +23330,28 @@
     </row>
     <row r="142" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>1912</v>
+        <v>1915</v>
       </c>
       <c r="B142">
-        <v>1912</v>
+        <v>1915</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="D142" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="F142" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="G142" t="s">
         <v>351</v>
       </c>
+      <c r="H142" t="s">
+        <v>385</v>
+      </c>
       <c r="K142" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="S142">
         <v>1</v>
@@ -23410,19 +23359,19 @@
     </row>
     <row r="143" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>1913</v>
+        <v>1916</v>
       </c>
       <c r="B143">
-        <v>1913</v>
-      </c>
-      <c r="C143" s="7" t="s">
-        <v>241</v>
+        <v>1916</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="D143" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="F143" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="G143" t="s">
         <v>351</v>
@@ -23431,7 +23380,7 @@
         <v>385</v>
       </c>
       <c r="K143" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="S143">
         <v>1</v>
@@ -23439,19 +23388,19 @@
     </row>
     <row r="144" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>1914</v>
+        <v>1917</v>
       </c>
       <c r="B144">
-        <v>1914</v>
+        <v>1917</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="D144" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F144" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="G144" t="s">
         <v>351</v>
@@ -23460,7 +23409,7 @@
         <v>385</v>
       </c>
       <c r="K144" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="S144">
         <v>1</v>
@@ -23468,28 +23417,25 @@
     </row>
     <row r="145" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>1915</v>
+        <v>1918</v>
       </c>
       <c r="B145">
-        <v>1915</v>
+        <v>1918</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="D145" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="F145" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="G145" t="s">
         <v>351</v>
       </c>
-      <c r="H145" t="s">
-        <v>385</v>
-      </c>
       <c r="K145" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="S145">
         <v>1</v>
@@ -23497,28 +23443,25 @@
     </row>
     <row r="146" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>1916</v>
+        <v>1930</v>
       </c>
       <c r="B146">
-        <v>1916</v>
+        <v>1930</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>247</v>
+        <v>270</v>
       </c>
       <c r="D146" t="s">
         <v>361</v>
       </c>
       <c r="F146" t="s">
-        <v>248</v>
+        <v>271</v>
       </c>
       <c r="G146" t="s">
         <v>351</v>
       </c>
-      <c r="H146" t="s">
-        <v>385</v>
-      </c>
       <c r="K146" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="S146">
         <v>1</v>
@@ -23526,19 +23469,19 @@
     </row>
     <row r="147" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>1917</v>
+        <v>1932</v>
       </c>
       <c r="B147">
-        <v>1917</v>
+        <v>1932</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>249</v>
+        <v>274</v>
       </c>
       <c r="D147" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F147" t="s">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="G147" t="s">
         <v>351</v>
@@ -23547,7 +23490,7 @@
         <v>385</v>
       </c>
       <c r="K147" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="S147">
         <v>1</v>
@@ -23555,25 +23498,25 @@
     </row>
     <row r="148" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>1918</v>
+        <v>1933</v>
       </c>
       <c r="B148">
-        <v>1918</v>
+        <v>1933</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>251</v>
+        <v>276</v>
       </c>
       <c r="D148" t="s">
         <v>363</v>
       </c>
       <c r="F148" t="s">
-        <v>252</v>
+        <v>277</v>
       </c>
       <c r="G148" t="s">
         <v>351</v>
       </c>
       <c r="K148" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="S148">
         <v>1</v>
@@ -23581,25 +23524,28 @@
     </row>
     <row r="149" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>1930</v>
+        <v>1934</v>
       </c>
       <c r="B149">
-        <v>1930</v>
+        <v>1934</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="D149" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="F149" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="G149" t="s">
         <v>351</v>
       </c>
+      <c r="H149" t="s">
+        <v>385</v>
+      </c>
       <c r="K149" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="S149">
         <v>1</v>
@@ -23607,28 +23553,25 @@
     </row>
     <row r="150" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>1932</v>
+        <v>1935</v>
       </c>
       <c r="B150">
-        <v>1932</v>
+        <v>1935</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="D150" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="F150" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="G150" t="s">
         <v>351</v>
       </c>
-      <c r="H150" t="s">
-        <v>385</v>
-      </c>
       <c r="K150" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="S150">
         <v>1</v>
@@ -23636,25 +23579,28 @@
     </row>
     <row r="151" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>1933</v>
+        <v>1936</v>
       </c>
       <c r="B151">
-        <v>1933</v>
-      </c>
-      <c r="C151" s="1" t="s">
-        <v>276</v>
+        <v>1936</v>
+      </c>
+      <c r="C151" s="7" t="s">
+        <v>282</v>
       </c>
       <c r="D151" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F151" t="s">
-        <v>277</v>
+        <v>222</v>
       </c>
       <c r="G151" t="s">
         <v>351</v>
       </c>
+      <c r="H151" t="s">
+        <v>385</v>
+      </c>
       <c r="K151" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="S151">
         <v>1</v>
@@ -23662,19 +23608,19 @@
     </row>
     <row r="152" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>1934</v>
+        <v>1937</v>
       </c>
       <c r="B152">
-        <v>1934</v>
-      </c>
-      <c r="C152" s="1" t="s">
-        <v>278</v>
+        <v>1937</v>
+      </c>
+      <c r="C152" s="7" t="s">
+        <v>283</v>
       </c>
       <c r="D152" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="F152" t="s">
-        <v>279</v>
+        <v>222</v>
       </c>
       <c r="G152" t="s">
         <v>351</v>
@@ -23683,7 +23629,7 @@
         <v>385</v>
       </c>
       <c r="K152" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="S152">
         <v>1</v>
@@ -23691,25 +23637,25 @@
     </row>
     <row r="153" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>1935</v>
+        <v>1938</v>
       </c>
       <c r="B153">
-        <v>1935</v>
+        <v>1938</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="D153" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="F153" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="G153" t="s">
         <v>351</v>
       </c>
       <c r="K153" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="S153">
         <v>1</v>
@@ -23717,19 +23663,19 @@
     </row>
     <row r="154" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>1936</v>
+        <v>1939</v>
       </c>
       <c r="B154">
-        <v>1936</v>
-      </c>
-      <c r="C154" s="7" t="s">
-        <v>282</v>
+        <v>1939</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>286</v>
       </c>
       <c r="D154" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="F154" t="s">
-        <v>222</v>
+        <v>287</v>
       </c>
       <c r="G154" t="s">
         <v>351</v>
@@ -23738,7 +23684,7 @@
         <v>385</v>
       </c>
       <c r="K154" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="S154">
         <v>1</v>
@@ -23746,19 +23692,19 @@
     </row>
     <row r="155" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>1937</v>
+        <v>1940</v>
       </c>
       <c r="B155">
-        <v>1937</v>
-      </c>
-      <c r="C155" s="7" t="s">
-        <v>283</v>
+        <v>1940</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>288</v>
       </c>
       <c r="D155" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="F155" t="s">
-        <v>222</v>
+        <v>289</v>
       </c>
       <c r="G155" t="s">
         <v>351</v>
@@ -23767,7 +23713,7 @@
         <v>385</v>
       </c>
       <c r="K155" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="S155">
         <v>1</v>
@@ -23775,25 +23721,28 @@
     </row>
     <row r="156" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>1938</v>
+        <v>1941</v>
       </c>
       <c r="B156">
-        <v>1938</v>
+        <v>1941</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="D156" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="F156" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="G156" t="s">
         <v>351</v>
       </c>
+      <c r="H156" t="s">
+        <v>385</v>
+      </c>
       <c r="K156" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="S156">
         <v>1</v>
@@ -23801,28 +23750,25 @@
     </row>
     <row r="157" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>1939</v>
+        <v>1942</v>
       </c>
       <c r="B157">
-        <v>1939</v>
+        <v>1942</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="D157" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="F157" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="G157" t="s">
         <v>351</v>
       </c>
-      <c r="H157" t="s">
-        <v>385</v>
-      </c>
       <c r="K157" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="S157">
         <v>1</v>
@@ -23830,28 +23776,25 @@
     </row>
     <row r="158" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>1940</v>
+        <v>1943</v>
       </c>
       <c r="B158">
-        <v>1940</v>
+        <v>1943</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="D158" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="F158" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="G158" t="s">
         <v>351</v>
       </c>
-      <c r="H158" t="s">
-        <v>385</v>
-      </c>
       <c r="K158" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="S158">
         <v>1</v>
@@ -23859,19 +23802,19 @@
     </row>
     <row r="159" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>1941</v>
+        <v>1944</v>
       </c>
       <c r="B159">
-        <v>1941</v>
-      </c>
-      <c r="C159" s="1" t="s">
-        <v>290</v>
+        <v>1944</v>
+      </c>
+      <c r="C159" s="7" t="s">
+        <v>297</v>
       </c>
       <c r="D159" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="F159" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="G159" t="s">
         <v>351</v>
@@ -23880,7 +23823,7 @@
         <v>385</v>
       </c>
       <c r="K159" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="S159">
         <v>1</v>
@@ -23888,25 +23831,28 @@
     </row>
     <row r="160" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>1942</v>
+        <v>1945</v>
       </c>
       <c r="B160">
-        <v>1942</v>
+        <v>1945</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="D160" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="F160" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G160" t="s">
         <v>351</v>
       </c>
+      <c r="H160" t="s">
+        <v>385</v>
+      </c>
       <c r="K160" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="S160">
         <v>1</v>
@@ -23914,25 +23860,25 @@
     </row>
     <row r="161" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>1943</v>
+        <v>1946</v>
       </c>
       <c r="B161">
-        <v>1943</v>
+        <v>1946</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="D161" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="F161" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="G161" t="s">
         <v>351</v>
       </c>
       <c r="K161" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="S161">
         <v>1</v>
@@ -23940,19 +23886,19 @@
     </row>
     <row r="162" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>1944</v>
+        <v>1947</v>
       </c>
       <c r="B162">
-        <v>1944</v>
+        <v>1947</v>
       </c>
       <c r="C162" s="7" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="D162" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="F162" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="G162" t="s">
         <v>351</v>
@@ -23961,7 +23907,7 @@
         <v>385</v>
       </c>
       <c r="K162" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="S162">
         <v>1</v>
@@ -23969,28 +23915,25 @@
     </row>
     <row r="163" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>1945</v>
+        <v>1948</v>
       </c>
       <c r="B163">
-        <v>1945</v>
+        <v>1948</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="D163" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="F163" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G163" t="s">
         <v>351</v>
       </c>
-      <c r="H163" t="s">
-        <v>385</v>
-      </c>
       <c r="K163" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="S163">
         <v>1</v>
@@ -23998,25 +23941,28 @@
     </row>
     <row r="164" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>1946</v>
+        <v>1949</v>
       </c>
       <c r="B164">
-        <v>1946</v>
+        <v>1949</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="D164" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="F164" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="G164" t="s">
         <v>351</v>
       </c>
+      <c r="H164" t="s">
+        <v>385</v>
+      </c>
       <c r="K164" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="S164">
         <v>1</v>
@@ -24024,28 +23970,25 @@
     </row>
     <row r="165" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>1947</v>
+        <v>1950</v>
       </c>
       <c r="B165">
-        <v>1947</v>
-      </c>
-      <c r="C165" s="7" t="s">
-        <v>303</v>
+        <v>1950</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>309</v>
       </c>
       <c r="D165" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="F165" t="s">
-        <v>304</v>
+        <v>210</v>
       </c>
       <c r="G165" t="s">
         <v>351</v>
       </c>
-      <c r="H165" t="s">
-        <v>385</v>
-      </c>
       <c r="K165" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="S165">
         <v>1</v>
@@ -24053,25 +23996,25 @@
     </row>
     <row r="166" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>1948</v>
+        <v>1951</v>
       </c>
       <c r="B166">
-        <v>1948</v>
+        <v>1951</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="D166" t="s">
         <v>362</v>
       </c>
       <c r="F166" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="G166" t="s">
         <v>351</v>
       </c>
       <c r="K166" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="S166">
         <v>1</v>
@@ -24079,19 +24022,19 @@
     </row>
     <row r="167" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>1949</v>
+        <v>1952</v>
       </c>
       <c r="B167">
-        <v>1949</v>
+        <v>1952</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="D167" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="F167" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="G167" t="s">
         <v>351</v>
@@ -24100,7 +24043,7 @@
         <v>385</v>
       </c>
       <c r="K167" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="S167">
         <v>1</v>
@@ -24108,25 +24051,28 @@
     </row>
     <row r="168" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>1950</v>
+        <v>1953</v>
       </c>
       <c r="B168">
-        <v>1950</v>
+        <v>1953</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="D168" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="F168" t="s">
-        <v>210</v>
+        <v>300</v>
       </c>
       <c r="G168" t="s">
         <v>351</v>
       </c>
+      <c r="H168" t="s">
+        <v>385</v>
+      </c>
       <c r="K168" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="S168">
         <v>1</v>
@@ -24134,25 +24080,25 @@
     </row>
     <row r="169" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>1951</v>
+        <v>1954</v>
       </c>
       <c r="B169">
-        <v>1951</v>
+        <v>1954</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="D169" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="F169" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="G169" t="s">
         <v>351</v>
       </c>
       <c r="K169" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="S169">
         <v>1</v>
@@ -24160,19 +24106,19 @@
     </row>
     <row r="170" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>1952</v>
+        <v>1955</v>
       </c>
       <c r="B170">
-        <v>1952</v>
+        <v>1955</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="D170" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="F170" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="G170" t="s">
         <v>351</v>
@@ -24181,7 +24127,7 @@
         <v>385</v>
       </c>
       <c r="K170" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="S170">
         <v>1</v>
@@ -24189,28 +24135,25 @@
     </row>
     <row r="171" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>1953</v>
+        <v>1956</v>
       </c>
       <c r="B171">
-        <v>1953</v>
+        <v>1956</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="D171" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="F171" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G171" t="s">
         <v>351</v>
       </c>
-      <c r="H171" t="s">
-        <v>385</v>
-      </c>
       <c r="K171" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="S171">
         <v>1</v>
@@ -24218,25 +24161,25 @@
     </row>
     <row r="172" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>1954</v>
+        <v>1957</v>
       </c>
       <c r="B172">
-        <v>1954</v>
+        <v>1957</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="D172" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="F172" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="G172" t="s">
         <v>351</v>
       </c>
       <c r="K172" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="S172">
         <v>1</v>
@@ -24244,28 +24187,25 @@
     </row>
     <row r="173" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>1955</v>
+        <v>1958</v>
       </c>
       <c r="B173">
-        <v>1955</v>
+        <v>1958</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="D173" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="F173" t="s">
-        <v>304</v>
+        <v>210</v>
       </c>
       <c r="G173" t="s">
         <v>351</v>
       </c>
-      <c r="H173" t="s">
-        <v>385</v>
-      </c>
       <c r="K173" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="S173">
         <v>1</v>
@@ -24273,105 +24213,27 @@
     </row>
     <row r="174" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>1956</v>
+        <v>1959</v>
       </c>
       <c r="B174">
-        <v>1956</v>
+        <v>1959</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="D174" t="s">
         <v>362</v>
       </c>
       <c r="F174" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="G174" t="s">
         <v>351</v>
       </c>
       <c r="K174" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="S174">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A175">
-        <v>1957</v>
-      </c>
-      <c r="B175">
-        <v>1957</v>
-      </c>
-      <c r="C175" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="D175" t="s">
-        <v>358</v>
-      </c>
-      <c r="F175" t="s">
-        <v>308</v>
-      </c>
-      <c r="G175" t="s">
-        <v>351</v>
-      </c>
-      <c r="K175" t="s">
-        <v>567</v>
-      </c>
-      <c r="S175">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A176">
-        <v>1958</v>
-      </c>
-      <c r="B176">
-        <v>1958</v>
-      </c>
-      <c r="C176" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="D176" t="s">
-        <v>363</v>
-      </c>
-      <c r="F176" t="s">
-        <v>210</v>
-      </c>
-      <c r="G176" t="s">
-        <v>351</v>
-      </c>
-      <c r="K176" t="s">
-        <v>567</v>
-      </c>
-      <c r="S176">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A177">
-        <v>1959</v>
-      </c>
-      <c r="B177">
-        <v>1959</v>
-      </c>
-      <c r="C177" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="D177" t="s">
-        <v>362</v>
-      </c>
-      <c r="F177" t="s">
-        <v>311</v>
-      </c>
-      <c r="G177" t="s">
-        <v>351</v>
-      </c>
-      <c r="K177" t="s">
-        <v>567</v>
-      </c>
-      <c r="S177">
         <v>1</v>
       </c>
     </row>
